--- a/src/Input_Files/province_names/francia_provinces.xlsx
+++ b/src/Input_Files/province_names/francia_provinces.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\province_names\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36854923-2B22-4C35-8F51-681D6E9EFBA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ED6615-F660-473E-A35A-BA16093D9359}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1755" windowWidth="21600" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="provinces" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3698,8 +3709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="A346" sqref="A346"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Input_Files/province_names/francia_provinces.xlsx
+++ b/src/Input_Files/province_names/francia_provinces.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\province_names\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\france_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ED6615-F660-473E-A35A-BA16093D9359}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C38B08-8840-4581-9BA3-A2BC38462EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1755" windowWidth="21600" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="provinces" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="1032">
   <si>
     <t>RGB</t>
   </si>
@@ -3189,10 +3178,1010 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="118">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3387,7 +4376,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3709,20 +4698,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="K314" sqref="K314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3742,7 +4731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3752,12 +4741,17 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="E2"/>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3767,12 +4761,17 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E3"/>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3782,12 +4781,17 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="E4"/>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3797,12 +4801,17 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="E5"/>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3812,12 +4821,17 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="E6"/>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3827,12 +4841,17 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="E7"/>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
       <c r="F7" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3842,12 +4861,17 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="E8"/>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -3857,12 +4881,17 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="E9"/>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3872,12 +4901,17 @@
       <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="E10"/>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
       <c r="F10" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -3887,12 +4921,17 @@
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="E11"/>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
       <c r="F11" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -3902,12 +4941,17 @@
       <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="E12"/>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
       <c r="F12" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3917,12 +4961,17 @@
       <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="E13"/>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
       <c r="F13" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -3932,12 +4981,17 @@
       <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="E14"/>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
       <c r="F14" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -3947,12 +5001,17 @@
       <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="E15"/>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
       <c r="F15" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -3962,12 +5021,17 @@
       <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="E16"/>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
       <c r="F16" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -3977,12 +5041,17 @@
       <c r="C17" t="s">
         <v>53</v>
       </c>
-      <c r="E17"/>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
       <c r="F17" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -3992,12 +5061,17 @@
       <c r="C18" t="s">
         <v>56</v>
       </c>
-      <c r="E18"/>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
       <c r="F18" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4007,12 +5081,17 @@
       <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="E19"/>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
       <c r="F19" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -4022,12 +5101,17 @@
       <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="E20"/>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
       <c r="F20" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -4037,12 +5121,17 @@
       <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="E21"/>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
       <c r="F21" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -4052,12 +5141,17 @@
       <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="E22"/>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
       <c r="F22" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -4067,12 +5161,17 @@
       <c r="C23" t="s">
         <v>71</v>
       </c>
-      <c r="E23"/>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
       <c r="F23" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -4082,12 +5181,17 @@
       <c r="C24" t="s">
         <v>74</v>
       </c>
-      <c r="E24"/>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
       <c r="F24" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -4097,12 +5201,17 @@
       <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="E25"/>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
       <c r="F25" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -4112,12 +5221,17 @@
       <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="E26"/>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
       <c r="F26" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -4127,12 +5241,17 @@
       <c r="C27" t="s">
         <v>83</v>
       </c>
-      <c r="E27"/>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
       <c r="F27" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -4142,12 +5261,17 @@
       <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="E28"/>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
       <c r="F28" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -4157,12 +5281,17 @@
       <c r="C29" t="s">
         <v>89</v>
       </c>
-      <c r="E29"/>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
       <c r="F29" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -4172,12 +5301,17 @@
       <c r="C30" t="s">
         <v>92</v>
       </c>
-      <c r="E30"/>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
       <c r="F30" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -4187,12 +5321,17 @@
       <c r="C31" t="s">
         <v>95</v>
       </c>
-      <c r="E31"/>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
       <c r="F31" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -4202,12 +5341,17 @@
       <c r="C32" t="s">
         <v>98</v>
       </c>
-      <c r="E32"/>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
       <c r="F32" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -4217,12 +5361,17 @@
       <c r="C33" t="s">
         <v>101</v>
       </c>
-      <c r="E33"/>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
       <c r="F33" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -4232,12 +5381,17 @@
       <c r="C34" t="s">
         <v>104</v>
       </c>
-      <c r="E34"/>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
       <c r="F34" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -4247,12 +5401,17 @@
       <c r="C35" t="s">
         <v>107</v>
       </c>
-      <c r="E35"/>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
       <c r="F35" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -4262,12 +5421,17 @@
       <c r="C36" t="s">
         <v>110</v>
       </c>
-      <c r="E36"/>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
       <c r="F36" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -4277,12 +5441,17 @@
       <c r="C37" t="s">
         <v>113</v>
       </c>
-      <c r="E37"/>
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
       <c r="F37" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -4292,12 +5461,17 @@
       <c r="C38" t="s">
         <v>116</v>
       </c>
-      <c r="E38"/>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
       <c r="F38" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -4307,12 +5481,17 @@
       <c r="C39" t="s">
         <v>119</v>
       </c>
-      <c r="E39"/>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
+      </c>
       <c r="F39" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -4322,12 +5501,17 @@
       <c r="C40" t="s">
         <v>122</v>
       </c>
-      <c r="E40"/>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" t="s">
+        <v>122</v>
+      </c>
       <c r="F40" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -4337,12 +5521,17 @@
       <c r="C41" t="s">
         <v>125</v>
       </c>
-      <c r="E41"/>
+      <c r="D41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" t="s">
+        <v>125</v>
+      </c>
       <c r="F41" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -4352,12 +5541,17 @@
       <c r="C42" t="s">
         <v>128</v>
       </c>
-      <c r="E42"/>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
       <c r="F42" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -4367,12 +5561,17 @@
       <c r="C43" t="s">
         <v>131</v>
       </c>
-      <c r="E43"/>
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
       <c r="F43" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -4382,12 +5581,17 @@
       <c r="C44" t="s">
         <v>134</v>
       </c>
-      <c r="E44"/>
+      <c r="D44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" t="s">
+        <v>134</v>
+      </c>
       <c r="F44" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -4397,12 +5601,17 @@
       <c r="C45" t="s">
         <v>137</v>
       </c>
-      <c r="E45"/>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
       <c r="F45" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -4412,12 +5621,17 @@
       <c r="C46" t="s">
         <v>140</v>
       </c>
-      <c r="E46"/>
+      <c r="D46" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" t="s">
+        <v>140</v>
+      </c>
       <c r="F46" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -4427,12 +5641,17 @@
       <c r="C47" t="s">
         <v>143</v>
       </c>
-      <c r="E47"/>
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" t="s">
+        <v>143</v>
+      </c>
       <c r="F47" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -4442,12 +5661,17 @@
       <c r="C48" t="s">
         <v>146</v>
       </c>
-      <c r="E48"/>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
       <c r="F48" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -4457,12 +5681,17 @@
       <c r="C49" t="s">
         <v>149</v>
       </c>
-      <c r="E49"/>
+      <c r="D49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" t="s">
+        <v>149</v>
+      </c>
       <c r="F49" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -4472,12 +5701,17 @@
       <c r="C50" t="s">
         <v>152</v>
       </c>
-      <c r="E50"/>
+      <c r="D50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" t="s">
+        <v>152</v>
+      </c>
       <c r="F50" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -4487,12 +5721,17 @@
       <c r="C51" t="s">
         <v>155</v>
       </c>
-      <c r="E51"/>
+      <c r="D51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" t="s">
+        <v>155</v>
+      </c>
       <c r="F51" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>156</v>
       </c>
@@ -4502,12 +5741,17 @@
       <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="E52"/>
+      <c r="D52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" t="s">
+        <v>158</v>
+      </c>
       <c r="F52" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>159</v>
       </c>
@@ -4517,12 +5761,17 @@
       <c r="C53" t="s">
         <v>161</v>
       </c>
-      <c r="E53"/>
+      <c r="D53" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" t="s">
+        <v>161</v>
+      </c>
       <c r="F53" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>162</v>
       </c>
@@ -4532,12 +5781,17 @@
       <c r="C54" t="s">
         <v>164</v>
       </c>
-      <c r="E54"/>
+      <c r="D54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" t="s">
+        <v>164</v>
+      </c>
       <c r="F54" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -4547,12 +5801,17 @@
       <c r="C55" t="s">
         <v>167</v>
       </c>
-      <c r="E55"/>
+      <c r="D55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" t="s">
+        <v>167</v>
+      </c>
       <c r="F55" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -4562,12 +5821,17 @@
       <c r="C56" t="s">
         <v>170</v>
       </c>
-      <c r="E56"/>
+      <c r="D56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" t="s">
+        <v>170</v>
+      </c>
       <c r="F56" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>171</v>
       </c>
@@ -4577,12 +5841,17 @@
       <c r="C57" t="s">
         <v>173</v>
       </c>
-      <c r="E57"/>
+      <c r="D57" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" t="s">
+        <v>173</v>
+      </c>
       <c r="F57" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>174</v>
       </c>
@@ -4592,12 +5861,17 @@
       <c r="C58" t="s">
         <v>176</v>
       </c>
-      <c r="E58"/>
+      <c r="D58" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" t="s">
+        <v>176</v>
+      </c>
       <c r="F58" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>177</v>
       </c>
@@ -4607,12 +5881,17 @@
       <c r="C59" t="s">
         <v>179</v>
       </c>
-      <c r="E59"/>
+      <c r="D59" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" t="s">
+        <v>179</v>
+      </c>
       <c r="F59" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -4622,12 +5901,17 @@
       <c r="C60" t="s">
         <v>182</v>
       </c>
-      <c r="E60"/>
+      <c r="D60" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" t="s">
+        <v>182</v>
+      </c>
       <c r="F60" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>183</v>
       </c>
@@ -4637,12 +5921,17 @@
       <c r="C61" t="s">
         <v>185</v>
       </c>
-      <c r="E61"/>
+      <c r="D61" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" t="s">
+        <v>185</v>
+      </c>
       <c r="F61" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -4652,12 +5941,17 @@
       <c r="C62" t="s">
         <v>188</v>
       </c>
-      <c r="E62"/>
+      <c r="D62" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" t="s">
+        <v>188</v>
+      </c>
       <c r="F62" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -4667,12 +5961,17 @@
       <c r="C63" t="s">
         <v>191</v>
       </c>
-      <c r="E63"/>
+      <c r="D63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
       <c r="F63" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>192</v>
       </c>
@@ -4682,12 +5981,17 @@
       <c r="C64" t="s">
         <v>194</v>
       </c>
-      <c r="E64"/>
+      <c r="D64" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" t="s">
+        <v>194</v>
+      </c>
       <c r="F64" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>195</v>
       </c>
@@ -4697,12 +6001,17 @@
       <c r="C65" t="s">
         <v>197</v>
       </c>
-      <c r="E65"/>
+      <c r="D65" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" t="s">
+        <v>197</v>
+      </c>
       <c r="F65" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>198</v>
       </c>
@@ -4712,12 +6021,17 @@
       <c r="C66" t="s">
         <v>200</v>
       </c>
-      <c r="E66"/>
+      <c r="D66" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" t="s">
+        <v>200</v>
+      </c>
       <c r="F66" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>201</v>
       </c>
@@ -4727,12 +6041,17 @@
       <c r="C67" t="s">
         <v>203</v>
       </c>
-      <c r="E67"/>
+      <c r="D67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" t="s">
+        <v>203</v>
+      </c>
       <c r="F67" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>204</v>
       </c>
@@ -4742,12 +6061,17 @@
       <c r="C68" t="s">
         <v>206</v>
       </c>
-      <c r="E68"/>
+      <c r="D68" t="s">
+        <v>205</v>
+      </c>
+      <c r="E68" t="s">
+        <v>206</v>
+      </c>
       <c r="F68" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -4757,12 +6081,17 @@
       <c r="C69" t="s">
         <v>209</v>
       </c>
-      <c r="E69"/>
+      <c r="D69" t="s">
+        <v>208</v>
+      </c>
+      <c r="E69" t="s">
+        <v>209</v>
+      </c>
       <c r="F69" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>210</v>
       </c>
@@ -4772,12 +6101,17 @@
       <c r="C70" t="s">
         <v>212</v>
       </c>
-      <c r="E70"/>
+      <c r="D70" t="s">
+        <v>211</v>
+      </c>
+      <c r="E70" t="s">
+        <v>212</v>
+      </c>
       <c r="F70" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>213</v>
       </c>
@@ -4787,12 +6121,17 @@
       <c r="C71" t="s">
         <v>215</v>
       </c>
-      <c r="E71"/>
+      <c r="D71" t="s">
+        <v>214</v>
+      </c>
+      <c r="E71" t="s">
+        <v>215</v>
+      </c>
       <c r="F71" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>216</v>
       </c>
@@ -4802,12 +6141,17 @@
       <c r="C72" t="s">
         <v>218</v>
       </c>
-      <c r="E72"/>
+      <c r="D72" t="s">
+        <v>217</v>
+      </c>
+      <c r="E72" t="s">
+        <v>218</v>
+      </c>
       <c r="F72" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>219</v>
       </c>
@@ -4817,12 +6161,17 @@
       <c r="C73" t="s">
         <v>221</v>
       </c>
-      <c r="E73"/>
+      <c r="D73" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" t="s">
+        <v>221</v>
+      </c>
       <c r="F73" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>222</v>
       </c>
@@ -4832,12 +6181,17 @@
       <c r="C74" t="s">
         <v>224</v>
       </c>
-      <c r="E74"/>
+      <c r="D74" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" t="s">
+        <v>224</v>
+      </c>
       <c r="F74" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>225</v>
       </c>
@@ -4847,12 +6201,17 @@
       <c r="C75" t="s">
         <v>227</v>
       </c>
-      <c r="E75"/>
+      <c r="D75" t="s">
+        <v>226</v>
+      </c>
+      <c r="E75" t="s">
+        <v>227</v>
+      </c>
       <c r="F75" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>228</v>
       </c>
@@ -4862,12 +6221,17 @@
       <c r="C76" t="s">
         <v>230</v>
       </c>
-      <c r="E76"/>
+      <c r="D76" t="s">
+        <v>229</v>
+      </c>
+      <c r="E76" t="s">
+        <v>230</v>
+      </c>
       <c r="F76" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>231</v>
       </c>
@@ -4877,12 +6241,17 @@
       <c r="C77" t="s">
         <v>233</v>
       </c>
-      <c r="E77"/>
+      <c r="D77" t="s">
+        <v>232</v>
+      </c>
+      <c r="E77" t="s">
+        <v>233</v>
+      </c>
       <c r="F77" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>234</v>
       </c>
@@ -4892,12 +6261,17 @@
       <c r="C78" t="s">
         <v>236</v>
       </c>
-      <c r="E78"/>
+      <c r="D78" t="s">
+        <v>235</v>
+      </c>
+      <c r="E78" t="s">
+        <v>236</v>
+      </c>
       <c r="F78" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>237</v>
       </c>
@@ -4907,12 +6281,17 @@
       <c r="C79" t="s">
         <v>239</v>
       </c>
-      <c r="E79"/>
+      <c r="D79" t="s">
+        <v>238</v>
+      </c>
+      <c r="E79" t="s">
+        <v>239</v>
+      </c>
       <c r="F79" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>240</v>
       </c>
@@ -4922,12 +6301,17 @@
       <c r="C80" t="s">
         <v>242</v>
       </c>
-      <c r="E80"/>
+      <c r="D80" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" t="s">
+        <v>242</v>
+      </c>
       <c r="F80" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>243</v>
       </c>
@@ -4937,12 +6321,17 @@
       <c r="C81" t="s">
         <v>245</v>
       </c>
-      <c r="E81"/>
+      <c r="D81" t="s">
+        <v>244</v>
+      </c>
+      <c r="E81" t="s">
+        <v>245</v>
+      </c>
       <c r="F81" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>246</v>
       </c>
@@ -4952,12 +6341,17 @@
       <c r="C82" t="s">
         <v>248</v>
       </c>
-      <c r="E82"/>
+      <c r="D82" t="s">
+        <v>247</v>
+      </c>
+      <c r="E82" t="s">
+        <v>248</v>
+      </c>
       <c r="F82" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>249</v>
       </c>
@@ -4967,12 +6361,17 @@
       <c r="C83" t="s">
         <v>251</v>
       </c>
-      <c r="E83"/>
+      <c r="D83" t="s">
+        <v>250</v>
+      </c>
+      <c r="E83" t="s">
+        <v>251</v>
+      </c>
       <c r="F83" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>252</v>
       </c>
@@ -4982,12 +6381,17 @@
       <c r="C84" t="s">
         <v>254</v>
       </c>
-      <c r="E84"/>
+      <c r="D84" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84" t="s">
+        <v>254</v>
+      </c>
       <c r="F84" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>255</v>
       </c>
@@ -4997,12 +6401,17 @@
       <c r="C85" t="s">
         <v>257</v>
       </c>
-      <c r="E85"/>
+      <c r="D85" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" t="s">
+        <v>257</v>
+      </c>
       <c r="F85" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>258</v>
       </c>
@@ -5012,12 +6421,17 @@
       <c r="C86" t="s">
         <v>260</v>
       </c>
-      <c r="E86"/>
+      <c r="D86" t="s">
+        <v>259</v>
+      </c>
+      <c r="E86" t="s">
+        <v>260</v>
+      </c>
       <c r="F86" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>261</v>
       </c>
@@ -5027,12 +6441,17 @@
       <c r="C87" t="s">
         <v>263</v>
       </c>
-      <c r="E87"/>
+      <c r="D87" t="s">
+        <v>262</v>
+      </c>
+      <c r="E87" t="s">
+        <v>263</v>
+      </c>
       <c r="F87" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>264</v>
       </c>
@@ -5042,12 +6461,17 @@
       <c r="C88" t="s">
         <v>266</v>
       </c>
-      <c r="E88"/>
+      <c r="D88" t="s">
+        <v>265</v>
+      </c>
+      <c r="E88" t="s">
+        <v>266</v>
+      </c>
       <c r="F88" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>267</v>
       </c>
@@ -5057,12 +6481,17 @@
       <c r="C89" t="s">
         <v>269</v>
       </c>
-      <c r="E89"/>
+      <c r="D89" t="s">
+        <v>268</v>
+      </c>
+      <c r="E89" t="s">
+        <v>269</v>
+      </c>
       <c r="F89" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>270</v>
       </c>
@@ -5072,12 +6501,17 @@
       <c r="C90" t="s">
         <v>272</v>
       </c>
-      <c r="E90"/>
+      <c r="D90" t="s">
+        <v>271</v>
+      </c>
+      <c r="E90" t="s">
+        <v>272</v>
+      </c>
       <c r="F90" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>273</v>
       </c>
@@ -5087,12 +6521,17 @@
       <c r="C91" t="s">
         <v>275</v>
       </c>
-      <c r="E91"/>
+      <c r="D91" t="s">
+        <v>274</v>
+      </c>
+      <c r="E91" t="s">
+        <v>275</v>
+      </c>
       <c r="F91" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>276</v>
       </c>
@@ -5102,12 +6541,17 @@
       <c r="C92" t="s">
         <v>278</v>
       </c>
-      <c r="E92"/>
+      <c r="D92" t="s">
+        <v>277</v>
+      </c>
+      <c r="E92" t="s">
+        <v>278</v>
+      </c>
       <c r="F92" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>279</v>
       </c>
@@ -5117,12 +6561,17 @@
       <c r="C93" t="s">
         <v>281</v>
       </c>
-      <c r="E93"/>
+      <c r="D93" t="s">
+        <v>280</v>
+      </c>
+      <c r="E93" t="s">
+        <v>281</v>
+      </c>
       <c r="F93" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>282</v>
       </c>
@@ -5132,12 +6581,17 @@
       <c r="C94" t="s">
         <v>284</v>
       </c>
-      <c r="E94"/>
+      <c r="D94" t="s">
+        <v>283</v>
+      </c>
+      <c r="E94" t="s">
+        <v>284</v>
+      </c>
       <c r="F94" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>285</v>
       </c>
@@ -5147,12 +6601,17 @@
       <c r="C95" t="s">
         <v>287</v>
       </c>
-      <c r="E95"/>
+      <c r="D95" t="s">
+        <v>286</v>
+      </c>
+      <c r="E95" t="s">
+        <v>287</v>
+      </c>
       <c r="F95" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>288</v>
       </c>
@@ -5162,12 +6621,17 @@
       <c r="C96" t="s">
         <v>290</v>
       </c>
-      <c r="E96"/>
+      <c r="D96" t="s">
+        <v>289</v>
+      </c>
+      <c r="E96" t="s">
+        <v>290</v>
+      </c>
       <c r="F96" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>291</v>
       </c>
@@ -5177,12 +6641,17 @@
       <c r="C97" t="s">
         <v>293</v>
       </c>
-      <c r="E97"/>
+      <c r="D97" t="s">
+        <v>292</v>
+      </c>
+      <c r="E97" t="s">
+        <v>293</v>
+      </c>
       <c r="F97" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>294</v>
       </c>
@@ -5192,12 +6661,17 @@
       <c r="C98" t="s">
         <v>296</v>
       </c>
-      <c r="E98"/>
+      <c r="D98" t="s">
+        <v>295</v>
+      </c>
+      <c r="E98" t="s">
+        <v>296</v>
+      </c>
       <c r="F98" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>297</v>
       </c>
@@ -5207,12 +6681,17 @@
       <c r="C99" t="s">
         <v>299</v>
       </c>
-      <c r="E99"/>
+      <c r="D99" t="s">
+        <v>298</v>
+      </c>
+      <c r="E99" t="s">
+        <v>299</v>
+      </c>
       <c r="F99" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>300</v>
       </c>
@@ -5222,12 +6701,17 @@
       <c r="C100" t="s">
         <v>302</v>
       </c>
-      <c r="E100"/>
+      <c r="D100" t="s">
+        <v>301</v>
+      </c>
+      <c r="E100" t="s">
+        <v>302</v>
+      </c>
       <c r="F100" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>303</v>
       </c>
@@ -5237,12 +6721,17 @@
       <c r="C101" t="s">
         <v>305</v>
       </c>
-      <c r="E101"/>
+      <c r="D101" t="s">
+        <v>304</v>
+      </c>
+      <c r="E101" t="s">
+        <v>305</v>
+      </c>
       <c r="F101" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>306</v>
       </c>
@@ -5252,12 +6741,17 @@
       <c r="C102" t="s">
         <v>308</v>
       </c>
-      <c r="E102"/>
+      <c r="D102" t="s">
+        <v>307</v>
+      </c>
+      <c r="E102" t="s">
+        <v>308</v>
+      </c>
       <c r="F102" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>309</v>
       </c>
@@ -5267,12 +6761,17 @@
       <c r="C103" t="s">
         <v>311</v>
       </c>
-      <c r="E103"/>
+      <c r="D103" t="s">
+        <v>310</v>
+      </c>
+      <c r="E103" t="s">
+        <v>311</v>
+      </c>
       <c r="F103" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>312</v>
       </c>
@@ -5282,12 +6781,17 @@
       <c r="C104" t="s">
         <v>314</v>
       </c>
-      <c r="E104"/>
+      <c r="D104" t="s">
+        <v>313</v>
+      </c>
+      <c r="E104" t="s">
+        <v>314</v>
+      </c>
       <c r="F104" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>315</v>
       </c>
@@ -5297,12 +6801,17 @@
       <c r="C105" t="s">
         <v>317</v>
       </c>
-      <c r="E105"/>
+      <c r="D105" t="s">
+        <v>316</v>
+      </c>
+      <c r="E105" t="s">
+        <v>317</v>
+      </c>
       <c r="F105" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>318</v>
       </c>
@@ -5312,12 +6821,17 @@
       <c r="C106" t="s">
         <v>320</v>
       </c>
-      <c r="E106"/>
+      <c r="D106" t="s">
+        <v>319</v>
+      </c>
+      <c r="E106" t="s">
+        <v>320</v>
+      </c>
       <c r="F106" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>321</v>
       </c>
@@ -5327,12 +6841,17 @@
       <c r="C107" t="s">
         <v>323</v>
       </c>
-      <c r="E107"/>
+      <c r="D107" t="s">
+        <v>322</v>
+      </c>
+      <c r="E107" t="s">
+        <v>323</v>
+      </c>
       <c r="F107" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>324</v>
       </c>
@@ -5342,12 +6861,17 @@
       <c r="C108" t="s">
         <v>326</v>
       </c>
-      <c r="E108"/>
+      <c r="D108" t="s">
+        <v>325</v>
+      </c>
+      <c r="E108" t="s">
+        <v>326</v>
+      </c>
       <c r="F108" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>327</v>
       </c>
@@ -5357,12 +6881,17 @@
       <c r="C109" t="s">
         <v>329</v>
       </c>
-      <c r="E109"/>
+      <c r="D109" t="s">
+        <v>328</v>
+      </c>
+      <c r="E109" t="s">
+        <v>329</v>
+      </c>
       <c r="F109" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>330</v>
       </c>
@@ -5372,12 +6901,17 @@
       <c r="C110" t="s">
         <v>332</v>
       </c>
-      <c r="E110"/>
+      <c r="D110" t="s">
+        <v>331</v>
+      </c>
+      <c r="E110" t="s">
+        <v>332</v>
+      </c>
       <c r="F110" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>333</v>
       </c>
@@ -5387,12 +6921,17 @@
       <c r="C111" t="s">
         <v>335</v>
       </c>
-      <c r="E111"/>
+      <c r="D111" t="s">
+        <v>334</v>
+      </c>
+      <c r="E111" t="s">
+        <v>335</v>
+      </c>
       <c r="F111" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>336</v>
       </c>
@@ -5402,12 +6941,17 @@
       <c r="C112" t="s">
         <v>338</v>
       </c>
-      <c r="E112"/>
+      <c r="D112" t="s">
+        <v>337</v>
+      </c>
+      <c r="E112" t="s">
+        <v>338</v>
+      </c>
       <c r="F112" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>339</v>
       </c>
@@ -5417,12 +6961,17 @@
       <c r="C113" t="s">
         <v>341</v>
       </c>
-      <c r="E113"/>
+      <c r="D113" t="s">
+        <v>340</v>
+      </c>
+      <c r="E113" t="s">
+        <v>341</v>
+      </c>
       <c r="F113" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>342</v>
       </c>
@@ -5432,12 +6981,17 @@
       <c r="C114" t="s">
         <v>344</v>
       </c>
-      <c r="E114"/>
+      <c r="D114" t="s">
+        <v>343</v>
+      </c>
+      <c r="E114" t="s">
+        <v>344</v>
+      </c>
       <c r="F114" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>345</v>
       </c>
@@ -5447,12 +7001,17 @@
       <c r="C115" t="s">
         <v>347</v>
       </c>
-      <c r="E115"/>
+      <c r="D115" t="s">
+        <v>346</v>
+      </c>
+      <c r="E115" t="s">
+        <v>347</v>
+      </c>
       <c r="F115" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>348</v>
       </c>
@@ -5462,12 +7021,17 @@
       <c r="C116" t="s">
         <v>350</v>
       </c>
-      <c r="E116"/>
+      <c r="D116" t="s">
+        <v>349</v>
+      </c>
+      <c r="E116" t="s">
+        <v>350</v>
+      </c>
       <c r="F116" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>351</v>
       </c>
@@ -5477,12 +7041,17 @@
       <c r="C117" t="s">
         <v>353</v>
       </c>
-      <c r="E117"/>
+      <c r="D117" t="s">
+        <v>352</v>
+      </c>
+      <c r="E117" t="s">
+        <v>353</v>
+      </c>
       <c r="F117" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>354</v>
       </c>
@@ -5492,12 +7061,17 @@
       <c r="C118" t="s">
         <v>356</v>
       </c>
-      <c r="E118"/>
+      <c r="D118" t="s">
+        <v>355</v>
+      </c>
+      <c r="E118" t="s">
+        <v>356</v>
+      </c>
       <c r="F118" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>357</v>
       </c>
@@ -5507,12 +7081,17 @@
       <c r="C119" t="s">
         <v>359</v>
       </c>
-      <c r="E119"/>
+      <c r="D119" t="s">
+        <v>358</v>
+      </c>
+      <c r="E119" t="s">
+        <v>359</v>
+      </c>
       <c r="F119" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>360</v>
       </c>
@@ -5522,12 +7101,17 @@
       <c r="C120" t="s">
         <v>362</v>
       </c>
-      <c r="E120"/>
+      <c r="D120" t="s">
+        <v>361</v>
+      </c>
+      <c r="E120" t="s">
+        <v>362</v>
+      </c>
       <c r="F120" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>363</v>
       </c>
@@ -5537,12 +7121,17 @@
       <c r="C121" t="s">
         <v>365</v>
       </c>
-      <c r="E121"/>
+      <c r="D121" t="s">
+        <v>364</v>
+      </c>
+      <c r="E121" t="s">
+        <v>365</v>
+      </c>
       <c r="F121" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>366</v>
       </c>
@@ -5552,12 +7141,17 @@
       <c r="C122" t="s">
         <v>368</v>
       </c>
-      <c r="E122"/>
+      <c r="D122" t="s">
+        <v>367</v>
+      </c>
+      <c r="E122" t="s">
+        <v>368</v>
+      </c>
       <c r="F122" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>369</v>
       </c>
@@ -5567,12 +7161,17 @@
       <c r="C123" t="s">
         <v>371</v>
       </c>
-      <c r="E123"/>
+      <c r="D123" t="s">
+        <v>370</v>
+      </c>
+      <c r="E123" t="s">
+        <v>371</v>
+      </c>
       <c r="F123" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>372</v>
       </c>
@@ -5582,12 +7181,17 @@
       <c r="C124" t="s">
         <v>374</v>
       </c>
-      <c r="E124"/>
+      <c r="D124" t="s">
+        <v>373</v>
+      </c>
+      <c r="E124" t="s">
+        <v>374</v>
+      </c>
       <c r="F124" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>375</v>
       </c>
@@ -5597,12 +7201,17 @@
       <c r="C125" t="s">
         <v>377</v>
       </c>
-      <c r="E125"/>
+      <c r="D125" t="s">
+        <v>376</v>
+      </c>
+      <c r="E125" t="s">
+        <v>377</v>
+      </c>
       <c r="F125" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>378</v>
       </c>
@@ -5612,12 +7221,17 @@
       <c r="C126" t="s">
         <v>380</v>
       </c>
-      <c r="E126"/>
+      <c r="D126" t="s">
+        <v>379</v>
+      </c>
+      <c r="E126" t="s">
+        <v>380</v>
+      </c>
       <c r="F126" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>381</v>
       </c>
@@ -5627,12 +7241,17 @@
       <c r="C127" t="s">
         <v>383</v>
       </c>
-      <c r="E127"/>
+      <c r="D127" t="s">
+        <v>382</v>
+      </c>
+      <c r="E127" t="s">
+        <v>383</v>
+      </c>
       <c r="F127" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>384</v>
       </c>
@@ -5642,12 +7261,17 @@
       <c r="C128" t="s">
         <v>386</v>
       </c>
-      <c r="E128"/>
+      <c r="D128" t="s">
+        <v>385</v>
+      </c>
+      <c r="E128" t="s">
+        <v>386</v>
+      </c>
       <c r="F128" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>387</v>
       </c>
@@ -5657,12 +7281,17 @@
       <c r="C129" t="s">
         <v>389</v>
       </c>
-      <c r="E129"/>
+      <c r="D129" t="s">
+        <v>388</v>
+      </c>
+      <c r="E129" t="s">
+        <v>389</v>
+      </c>
       <c r="F129" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>390</v>
       </c>
@@ -5672,12 +7301,17 @@
       <c r="C130" t="s">
         <v>392</v>
       </c>
-      <c r="E130"/>
+      <c r="D130" t="s">
+        <v>391</v>
+      </c>
+      <c r="E130" t="s">
+        <v>392</v>
+      </c>
       <c r="F130" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>393</v>
       </c>
@@ -5687,12 +7321,17 @@
       <c r="C131" t="s">
         <v>395</v>
       </c>
-      <c r="E131"/>
+      <c r="D131" t="s">
+        <v>394</v>
+      </c>
+      <c r="E131" t="s">
+        <v>395</v>
+      </c>
       <c r="F131" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>396</v>
       </c>
@@ -5702,12 +7341,17 @@
       <c r="C132" t="s">
         <v>398</v>
       </c>
-      <c r="E132"/>
+      <c r="D132" t="s">
+        <v>397</v>
+      </c>
+      <c r="E132" t="s">
+        <v>398</v>
+      </c>
       <c r="F132" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>399</v>
       </c>
@@ -5717,12 +7361,17 @@
       <c r="C133" t="s">
         <v>401</v>
       </c>
-      <c r="E133"/>
+      <c r="D133" t="s">
+        <v>400</v>
+      </c>
+      <c r="E133" t="s">
+        <v>401</v>
+      </c>
       <c r="F133" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>402</v>
       </c>
@@ -5732,12 +7381,17 @@
       <c r="C134" t="s">
         <v>404</v>
       </c>
-      <c r="E134"/>
+      <c r="D134" t="s">
+        <v>403</v>
+      </c>
+      <c r="E134" t="s">
+        <v>404</v>
+      </c>
       <c r="F134" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>405</v>
       </c>
@@ -5747,12 +7401,17 @@
       <c r="C135" t="s">
         <v>407</v>
       </c>
-      <c r="E135"/>
+      <c r="D135" t="s">
+        <v>406</v>
+      </c>
+      <c r="E135" t="s">
+        <v>407</v>
+      </c>
       <c r="F135" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>408</v>
       </c>
@@ -5762,12 +7421,17 @@
       <c r="C136" t="s">
         <v>410</v>
       </c>
-      <c r="E136"/>
+      <c r="D136" t="s">
+        <v>409</v>
+      </c>
+      <c r="E136" t="s">
+        <v>410</v>
+      </c>
       <c r="F136" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>411</v>
       </c>
@@ -5777,12 +7441,17 @@
       <c r="C137" t="s">
         <v>413</v>
       </c>
-      <c r="E137"/>
+      <c r="D137" t="s">
+        <v>412</v>
+      </c>
+      <c r="E137" t="s">
+        <v>413</v>
+      </c>
       <c r="F137" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>414</v>
       </c>
@@ -5792,12 +7461,17 @@
       <c r="C138" t="s">
         <v>416</v>
       </c>
-      <c r="E138"/>
+      <c r="D138" t="s">
+        <v>415</v>
+      </c>
+      <c r="E138" t="s">
+        <v>416</v>
+      </c>
       <c r="F138" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>417</v>
       </c>
@@ -5807,12 +7481,17 @@
       <c r="C139" t="s">
         <v>419</v>
       </c>
-      <c r="E139"/>
+      <c r="D139" t="s">
+        <v>418</v>
+      </c>
+      <c r="E139" t="s">
+        <v>419</v>
+      </c>
       <c r="F139" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>420</v>
       </c>
@@ -5822,12 +7501,17 @@
       <c r="C140" t="s">
         <v>422</v>
       </c>
-      <c r="E140"/>
+      <c r="D140" t="s">
+        <v>421</v>
+      </c>
+      <c r="E140" t="s">
+        <v>422</v>
+      </c>
       <c r="F140" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>423</v>
       </c>
@@ -5837,12 +7521,17 @@
       <c r="C141" t="s">
         <v>425</v>
       </c>
-      <c r="E141"/>
+      <c r="D141" t="s">
+        <v>424</v>
+      </c>
+      <c r="E141" t="s">
+        <v>425</v>
+      </c>
       <c r="F141" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>426</v>
       </c>
@@ -5852,12 +7541,17 @@
       <c r="C142" t="s">
         <v>428</v>
       </c>
-      <c r="E142"/>
+      <c r="D142" t="s">
+        <v>427</v>
+      </c>
+      <c r="E142" t="s">
+        <v>428</v>
+      </c>
       <c r="F142" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>429</v>
       </c>
@@ -5867,12 +7561,17 @@
       <c r="C143" t="s">
         <v>431</v>
       </c>
-      <c r="E143"/>
+      <c r="D143" t="s">
+        <v>430</v>
+      </c>
+      <c r="E143" t="s">
+        <v>431</v>
+      </c>
       <c r="F143" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>432</v>
       </c>
@@ -5882,12 +7581,17 @@
       <c r="C144" t="s">
         <v>434</v>
       </c>
-      <c r="E144"/>
+      <c r="D144" t="s">
+        <v>433</v>
+      </c>
+      <c r="E144" t="s">
+        <v>434</v>
+      </c>
       <c r="F144" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>435</v>
       </c>
@@ -5897,12 +7601,17 @@
       <c r="C145" t="s">
         <v>437</v>
       </c>
-      <c r="E145"/>
+      <c r="D145" t="s">
+        <v>436</v>
+      </c>
+      <c r="E145" t="s">
+        <v>437</v>
+      </c>
       <c r="F145" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>438</v>
       </c>
@@ -5912,12 +7621,17 @@
       <c r="C146" t="s">
         <v>440</v>
       </c>
-      <c r="E146"/>
+      <c r="D146" t="s">
+        <v>439</v>
+      </c>
+      <c r="E146" t="s">
+        <v>440</v>
+      </c>
       <c r="F146" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>441</v>
       </c>
@@ -5927,12 +7641,17 @@
       <c r="C147" t="s">
         <v>443</v>
       </c>
-      <c r="E147"/>
+      <c r="D147" t="s">
+        <v>442</v>
+      </c>
+      <c r="E147" t="s">
+        <v>443</v>
+      </c>
       <c r="F147" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>444</v>
       </c>
@@ -5942,12 +7661,17 @@
       <c r="C148" t="s">
         <v>446</v>
       </c>
-      <c r="E148"/>
+      <c r="D148" t="s">
+        <v>445</v>
+      </c>
+      <c r="E148" t="s">
+        <v>446</v>
+      </c>
       <c r="F148" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>447</v>
       </c>
@@ -5957,12 +7681,17 @@
       <c r="C149" t="s">
         <v>449</v>
       </c>
-      <c r="E149"/>
+      <c r="D149" t="s">
+        <v>448</v>
+      </c>
+      <c r="E149" t="s">
+        <v>449</v>
+      </c>
       <c r="F149" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>450</v>
       </c>
@@ -5972,12 +7701,17 @@
       <c r="C150" t="s">
         <v>452</v>
       </c>
-      <c r="E150"/>
+      <c r="D150" t="s">
+        <v>451</v>
+      </c>
+      <c r="E150" t="s">
+        <v>452</v>
+      </c>
       <c r="F150" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>453</v>
       </c>
@@ -5997,7 +7731,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>458</v>
       </c>
@@ -6007,12 +7741,17 @@
       <c r="C152" t="s">
         <v>460</v>
       </c>
-      <c r="E152"/>
+      <c r="D152" t="s">
+        <v>459</v>
+      </c>
+      <c r="E152" t="s">
+        <v>460</v>
+      </c>
       <c r="F152" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>461</v>
       </c>
@@ -6022,12 +7761,17 @@
       <c r="C153" t="s">
         <v>463</v>
       </c>
-      <c r="E153"/>
+      <c r="D153" t="s">
+        <v>462</v>
+      </c>
+      <c r="E153" t="s">
+        <v>463</v>
+      </c>
       <c r="F153" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>464</v>
       </c>
@@ -6037,12 +7781,17 @@
       <c r="C154" t="s">
         <v>466</v>
       </c>
-      <c r="E154"/>
+      <c r="D154" t="s">
+        <v>465</v>
+      </c>
+      <c r="E154" t="s">
+        <v>466</v>
+      </c>
       <c r="F154" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>467</v>
       </c>
@@ -6052,12 +7801,17 @@
       <c r="C155" t="s">
         <v>469</v>
       </c>
-      <c r="E155"/>
+      <c r="D155" t="s">
+        <v>468</v>
+      </c>
+      <c r="E155" t="s">
+        <v>469</v>
+      </c>
       <c r="F155" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>470</v>
       </c>
@@ -6067,12 +7821,17 @@
       <c r="C156" t="s">
         <v>472</v>
       </c>
-      <c r="E156"/>
+      <c r="D156" t="s">
+        <v>471</v>
+      </c>
+      <c r="E156" t="s">
+        <v>472</v>
+      </c>
       <c r="F156" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>473</v>
       </c>
@@ -6082,12 +7841,17 @@
       <c r="C157" t="s">
         <v>475</v>
       </c>
-      <c r="E157"/>
+      <c r="D157" t="s">
+        <v>474</v>
+      </c>
+      <c r="E157" t="s">
+        <v>475</v>
+      </c>
       <c r="F157" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>476</v>
       </c>
@@ -6097,12 +7861,17 @@
       <c r="C158" t="s">
         <v>478</v>
       </c>
-      <c r="E158"/>
+      <c r="D158" t="s">
+        <v>477</v>
+      </c>
+      <c r="E158" t="s">
+        <v>478</v>
+      </c>
       <c r="F158" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>479</v>
       </c>
@@ -6112,12 +7881,17 @@
       <c r="C159" t="s">
         <v>481</v>
       </c>
-      <c r="E159"/>
+      <c r="D159" t="s">
+        <v>480</v>
+      </c>
+      <c r="E159" t="s">
+        <v>481</v>
+      </c>
       <c r="F159" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>482</v>
       </c>
@@ -6127,12 +7901,17 @@
       <c r="C160" t="s">
         <v>484</v>
       </c>
-      <c r="E160"/>
+      <c r="D160" t="s">
+        <v>483</v>
+      </c>
+      <c r="E160" t="s">
+        <v>484</v>
+      </c>
       <c r="F160" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>485</v>
       </c>
@@ -6142,12 +7921,17 @@
       <c r="C161" t="s">
         <v>487</v>
       </c>
-      <c r="E161"/>
+      <c r="D161" t="s">
+        <v>486</v>
+      </c>
+      <c r="E161" t="s">
+        <v>487</v>
+      </c>
       <c r="F161" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>488</v>
       </c>
@@ -6157,12 +7941,17 @@
       <c r="C162" t="s">
         <v>490</v>
       </c>
-      <c r="E162"/>
+      <c r="D162" t="s">
+        <v>489</v>
+      </c>
+      <c r="E162" t="s">
+        <v>490</v>
+      </c>
       <c r="F162" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>491</v>
       </c>
@@ -6172,12 +7961,17 @@
       <c r="C163" t="s">
         <v>493</v>
       </c>
-      <c r="E163"/>
+      <c r="D163" t="s">
+        <v>492</v>
+      </c>
+      <c r="E163" t="s">
+        <v>493</v>
+      </c>
       <c r="F163" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>494</v>
       </c>
@@ -6187,12 +7981,17 @@
       <c r="C164" t="s">
         <v>496</v>
       </c>
-      <c r="E164"/>
+      <c r="D164" t="s">
+        <v>495</v>
+      </c>
+      <c r="E164" t="s">
+        <v>496</v>
+      </c>
       <c r="F164" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>497</v>
       </c>
@@ -6202,12 +8001,17 @@
       <c r="C165" t="s">
         <v>499</v>
       </c>
-      <c r="E165"/>
+      <c r="D165" t="s">
+        <v>498</v>
+      </c>
+      <c r="E165" t="s">
+        <v>499</v>
+      </c>
       <c r="F165" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>500</v>
       </c>
@@ -6217,12 +8021,17 @@
       <c r="C166" t="s">
         <v>502</v>
       </c>
-      <c r="E166"/>
+      <c r="D166" t="s">
+        <v>501</v>
+      </c>
+      <c r="E166" t="s">
+        <v>502</v>
+      </c>
       <c r="F166" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>503</v>
       </c>
@@ -6232,12 +8041,17 @@
       <c r="C167" t="s">
         <v>505</v>
       </c>
-      <c r="E167"/>
+      <c r="D167" t="s">
+        <v>504</v>
+      </c>
+      <c r="E167" t="s">
+        <v>505</v>
+      </c>
       <c r="F167" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>506</v>
       </c>
@@ -6247,12 +8061,17 @@
       <c r="C168" t="s">
         <v>508</v>
       </c>
-      <c r="E168"/>
+      <c r="D168" t="s">
+        <v>507</v>
+      </c>
+      <c r="E168" t="s">
+        <v>508</v>
+      </c>
       <c r="F168" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>509</v>
       </c>
@@ -6262,12 +8081,17 @@
       <c r="C169" t="s">
         <v>511</v>
       </c>
-      <c r="E169"/>
+      <c r="D169" t="s">
+        <v>510</v>
+      </c>
+      <c r="E169" t="s">
+        <v>511</v>
+      </c>
       <c r="F169" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>512</v>
       </c>
@@ -6277,12 +8101,17 @@
       <c r="C170" t="s">
         <v>514</v>
       </c>
-      <c r="E170"/>
+      <c r="D170" t="s">
+        <v>513</v>
+      </c>
+      <c r="E170" t="s">
+        <v>514</v>
+      </c>
       <c r="F170" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>515</v>
       </c>
@@ -6292,12 +8121,17 @@
       <c r="C171" t="s">
         <v>517</v>
       </c>
-      <c r="E171"/>
+      <c r="D171" t="s">
+        <v>516</v>
+      </c>
+      <c r="E171" t="s">
+        <v>517</v>
+      </c>
       <c r="F171" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>518</v>
       </c>
@@ -6307,12 +8141,17 @@
       <c r="C172" t="s">
         <v>520</v>
       </c>
-      <c r="E172"/>
+      <c r="D172" t="s">
+        <v>519</v>
+      </c>
+      <c r="E172" t="s">
+        <v>520</v>
+      </c>
       <c r="F172" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>521</v>
       </c>
@@ -6322,12 +8161,17 @@
       <c r="C173" t="s">
         <v>523</v>
       </c>
-      <c r="E173"/>
+      <c r="D173" t="s">
+        <v>522</v>
+      </c>
+      <c r="E173" t="s">
+        <v>523</v>
+      </c>
       <c r="F173" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>524</v>
       </c>
@@ -6337,12 +8181,17 @@
       <c r="C174" t="s">
         <v>526</v>
       </c>
-      <c r="E174"/>
+      <c r="D174" t="s">
+        <v>525</v>
+      </c>
+      <c r="E174" t="s">
+        <v>526</v>
+      </c>
       <c r="F174" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>527</v>
       </c>
@@ -6352,12 +8201,17 @@
       <c r="C175" t="s">
         <v>529</v>
       </c>
-      <c r="E175"/>
+      <c r="D175" t="s">
+        <v>528</v>
+      </c>
+      <c r="E175" t="s">
+        <v>529</v>
+      </c>
       <c r="F175" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>530</v>
       </c>
@@ -6367,12 +8221,17 @@
       <c r="C176" t="s">
         <v>532</v>
       </c>
-      <c r="E176"/>
+      <c r="D176" t="s">
+        <v>531</v>
+      </c>
+      <c r="E176" t="s">
+        <v>532</v>
+      </c>
       <c r="F176" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>533</v>
       </c>
@@ -6382,12 +8241,17 @@
       <c r="C177" t="s">
         <v>535</v>
       </c>
-      <c r="E177"/>
+      <c r="D177" t="s">
+        <v>534</v>
+      </c>
+      <c r="E177" t="s">
+        <v>535</v>
+      </c>
       <c r="F177" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>536</v>
       </c>
@@ -6397,12 +8261,17 @@
       <c r="C178" t="s">
         <v>538</v>
       </c>
-      <c r="E178"/>
+      <c r="D178" t="s">
+        <v>537</v>
+      </c>
+      <c r="E178" t="s">
+        <v>538</v>
+      </c>
       <c r="F178" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>539</v>
       </c>
@@ -6412,12 +8281,17 @@
       <c r="C179" t="s">
         <v>541</v>
       </c>
-      <c r="E179"/>
+      <c r="D179" t="s">
+        <v>540</v>
+      </c>
+      <c r="E179" t="s">
+        <v>541</v>
+      </c>
       <c r="F179" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>542</v>
       </c>
@@ -6427,12 +8301,17 @@
       <c r="C180" t="s">
         <v>544</v>
       </c>
-      <c r="E180"/>
+      <c r="D180" t="s">
+        <v>543</v>
+      </c>
+      <c r="E180" t="s">
+        <v>544</v>
+      </c>
       <c r="F180" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>545</v>
       </c>
@@ -6442,12 +8321,17 @@
       <c r="C181" t="s">
         <v>547</v>
       </c>
-      <c r="E181"/>
+      <c r="D181" t="s">
+        <v>546</v>
+      </c>
+      <c r="E181" t="s">
+        <v>547</v>
+      </c>
       <c r="F181" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>548</v>
       </c>
@@ -6457,12 +8341,17 @@
       <c r="C182" t="s">
         <v>550</v>
       </c>
-      <c r="E182"/>
+      <c r="D182" t="s">
+        <v>549</v>
+      </c>
+      <c r="E182" t="s">
+        <v>550</v>
+      </c>
       <c r="F182" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>551</v>
       </c>
@@ -6472,12 +8361,17 @@
       <c r="C183" t="s">
         <v>553</v>
       </c>
-      <c r="E183"/>
+      <c r="D183" t="s">
+        <v>552</v>
+      </c>
+      <c r="E183" t="s">
+        <v>553</v>
+      </c>
       <c r="F183" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>554</v>
       </c>
@@ -6487,12 +8381,17 @@
       <c r="C184" t="s">
         <v>556</v>
       </c>
-      <c r="E184"/>
+      <c r="D184" t="s">
+        <v>555</v>
+      </c>
+      <c r="E184" t="s">
+        <v>556</v>
+      </c>
       <c r="F184" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>557</v>
       </c>
@@ -6502,12 +8401,17 @@
       <c r="C185" t="s">
         <v>559</v>
       </c>
-      <c r="E185"/>
+      <c r="D185" t="s">
+        <v>558</v>
+      </c>
+      <c r="E185" t="s">
+        <v>559</v>
+      </c>
       <c r="F185" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>560</v>
       </c>
@@ -6517,12 +8421,17 @@
       <c r="C186" t="s">
         <v>562</v>
       </c>
-      <c r="E186"/>
+      <c r="D186" t="s">
+        <v>561</v>
+      </c>
+      <c r="E186" t="s">
+        <v>562</v>
+      </c>
       <c r="F186" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>563</v>
       </c>
@@ -6532,12 +8441,17 @@
       <c r="C187" t="s">
         <v>565</v>
       </c>
-      <c r="E187"/>
+      <c r="D187" t="s">
+        <v>564</v>
+      </c>
+      <c r="E187" t="s">
+        <v>565</v>
+      </c>
       <c r="F187" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>566</v>
       </c>
@@ -6547,12 +8461,17 @@
       <c r="C188" t="s">
         <v>568</v>
       </c>
-      <c r="E188"/>
+      <c r="D188" t="s">
+        <v>567</v>
+      </c>
+      <c r="E188" t="s">
+        <v>568</v>
+      </c>
       <c r="F188" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>569</v>
       </c>
@@ -6562,12 +8481,17 @@
       <c r="C189" t="s">
         <v>571</v>
       </c>
-      <c r="E189"/>
+      <c r="D189" t="s">
+        <v>570</v>
+      </c>
+      <c r="E189" t="s">
+        <v>571</v>
+      </c>
       <c r="F189" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>572</v>
       </c>
@@ -6577,12 +8501,17 @@
       <c r="C190" t="s">
         <v>574</v>
       </c>
-      <c r="E190"/>
+      <c r="D190" t="s">
+        <v>573</v>
+      </c>
+      <c r="E190" t="s">
+        <v>574</v>
+      </c>
       <c r="F190" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>575</v>
       </c>
@@ -6592,12 +8521,17 @@
       <c r="C191" t="s">
         <v>577</v>
       </c>
-      <c r="E191"/>
+      <c r="D191" t="s">
+        <v>576</v>
+      </c>
+      <c r="E191" t="s">
+        <v>577</v>
+      </c>
       <c r="F191" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>578</v>
       </c>
@@ -6607,12 +8541,17 @@
       <c r="C192" t="s">
         <v>580</v>
       </c>
-      <c r="E192"/>
+      <c r="D192" t="s">
+        <v>579</v>
+      </c>
+      <c r="E192" t="s">
+        <v>580</v>
+      </c>
       <c r="F192" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>581</v>
       </c>
@@ -6622,12 +8561,17 @@
       <c r="C193" t="s">
         <v>583</v>
       </c>
-      <c r="E193"/>
+      <c r="D193" t="s">
+        <v>582</v>
+      </c>
+      <c r="E193" t="s">
+        <v>583</v>
+      </c>
       <c r="F193" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>584</v>
       </c>
@@ -6637,12 +8581,17 @@
       <c r="C194" t="s">
         <v>586</v>
       </c>
-      <c r="E194"/>
+      <c r="D194" t="s">
+        <v>585</v>
+      </c>
+      <c r="E194" t="s">
+        <v>586</v>
+      </c>
       <c r="F194" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>587</v>
       </c>
@@ -6652,12 +8601,17 @@
       <c r="C195" t="s">
         <v>589</v>
       </c>
-      <c r="E195"/>
+      <c r="D195" t="s">
+        <v>588</v>
+      </c>
+      <c r="E195" t="s">
+        <v>589</v>
+      </c>
       <c r="F195" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>590</v>
       </c>
@@ -6667,12 +8621,17 @@
       <c r="C196" t="s">
         <v>592</v>
       </c>
-      <c r="E196"/>
+      <c r="D196" t="s">
+        <v>591</v>
+      </c>
+      <c r="E196" t="s">
+        <v>592</v>
+      </c>
       <c r="F196" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>593</v>
       </c>
@@ -6682,12 +8641,17 @@
       <c r="C197" t="s">
         <v>595</v>
       </c>
-      <c r="E197"/>
+      <c r="D197" t="s">
+        <v>594</v>
+      </c>
+      <c r="E197" t="s">
+        <v>595</v>
+      </c>
       <c r="F197" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>596</v>
       </c>
@@ -6697,12 +8661,17 @@
       <c r="C198" t="s">
         <v>598</v>
       </c>
-      <c r="E198"/>
+      <c r="D198" t="s">
+        <v>597</v>
+      </c>
+      <c r="E198" t="s">
+        <v>598</v>
+      </c>
       <c r="F198" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>599</v>
       </c>
@@ -6712,12 +8681,17 @@
       <c r="C199" t="s">
         <v>601</v>
       </c>
-      <c r="E199"/>
+      <c r="D199" t="s">
+        <v>600</v>
+      </c>
+      <c r="E199" t="s">
+        <v>601</v>
+      </c>
       <c r="F199" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>602</v>
       </c>
@@ -6727,12 +8701,17 @@
       <c r="C200" t="s">
         <v>604</v>
       </c>
-      <c r="E200"/>
+      <c r="D200" t="s">
+        <v>603</v>
+      </c>
+      <c r="E200" t="s">
+        <v>604</v>
+      </c>
       <c r="F200" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>605</v>
       </c>
@@ -6742,12 +8721,17 @@
       <c r="C201" t="s">
         <v>607</v>
       </c>
-      <c r="E201"/>
+      <c r="D201" t="s">
+        <v>606</v>
+      </c>
+      <c r="E201" t="s">
+        <v>607</v>
+      </c>
       <c r="F201" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>608</v>
       </c>
@@ -6757,12 +8741,17 @@
       <c r="C202" t="s">
         <v>610</v>
       </c>
-      <c r="E202"/>
+      <c r="D202" t="s">
+        <v>609</v>
+      </c>
+      <c r="E202" t="s">
+        <v>610</v>
+      </c>
       <c r="F202" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>611</v>
       </c>
@@ -6772,12 +8761,17 @@
       <c r="C203" t="s">
         <v>613</v>
       </c>
-      <c r="E203"/>
+      <c r="D203" t="s">
+        <v>612</v>
+      </c>
+      <c r="E203" t="s">
+        <v>613</v>
+      </c>
       <c r="F203" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>614</v>
       </c>
@@ -6787,12 +8781,17 @@
       <c r="C204" t="s">
         <v>616</v>
       </c>
-      <c r="E204"/>
+      <c r="D204" t="s">
+        <v>615</v>
+      </c>
+      <c r="E204" t="s">
+        <v>616</v>
+      </c>
       <c r="F204" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>617</v>
       </c>
@@ -6802,12 +8801,17 @@
       <c r="C205" t="s">
         <v>619</v>
       </c>
-      <c r="E205"/>
+      <c r="D205" t="s">
+        <v>618</v>
+      </c>
+      <c r="E205" t="s">
+        <v>619</v>
+      </c>
       <c r="F205" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>620</v>
       </c>
@@ -6817,12 +8821,17 @@
       <c r="C206" t="s">
         <v>622</v>
       </c>
-      <c r="E206"/>
+      <c r="D206" t="s">
+        <v>621</v>
+      </c>
+      <c r="E206" t="s">
+        <v>622</v>
+      </c>
       <c r="F206" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>623</v>
       </c>
@@ -6832,12 +8841,17 @@
       <c r="C207" t="s">
         <v>625</v>
       </c>
-      <c r="E207"/>
+      <c r="D207" t="s">
+        <v>624</v>
+      </c>
+      <c r="E207" t="s">
+        <v>625</v>
+      </c>
       <c r="F207" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>626</v>
       </c>
@@ -6847,12 +8861,17 @@
       <c r="C208" t="s">
         <v>628</v>
       </c>
-      <c r="E208"/>
+      <c r="D208" t="s">
+        <v>627</v>
+      </c>
+      <c r="E208" t="s">
+        <v>628</v>
+      </c>
       <c r="F208" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>629</v>
       </c>
@@ -6862,12 +8881,17 @@
       <c r="C209" t="s">
         <v>631</v>
       </c>
-      <c r="E209"/>
+      <c r="D209" t="s">
+        <v>630</v>
+      </c>
+      <c r="E209" t="s">
+        <v>631</v>
+      </c>
       <c r="F209" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>632</v>
       </c>
@@ -6877,12 +8901,17 @@
       <c r="C210" t="s">
         <v>634</v>
       </c>
-      <c r="E210"/>
+      <c r="D210" t="s">
+        <v>633</v>
+      </c>
+      <c r="E210" t="s">
+        <v>634</v>
+      </c>
       <c r="F210" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>635</v>
       </c>
@@ -6892,12 +8921,17 @@
       <c r="C211" t="s">
         <v>637</v>
       </c>
-      <c r="E211"/>
+      <c r="D211" t="s">
+        <v>636</v>
+      </c>
+      <c r="E211" t="s">
+        <v>637</v>
+      </c>
       <c r="F211" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>638</v>
       </c>
@@ -6907,12 +8941,17 @@
       <c r="C212" t="s">
         <v>640</v>
       </c>
-      <c r="E212"/>
+      <c r="D212" t="s">
+        <v>639</v>
+      </c>
+      <c r="E212" t="s">
+        <v>640</v>
+      </c>
       <c r="F212" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>641</v>
       </c>
@@ -6922,12 +8961,17 @@
       <c r="C213" t="s">
         <v>643</v>
       </c>
-      <c r="E213"/>
+      <c r="D213" t="s">
+        <v>642</v>
+      </c>
+      <c r="E213" t="s">
+        <v>643</v>
+      </c>
       <c r="F213" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>644</v>
       </c>
@@ -6937,12 +8981,17 @@
       <c r="C214" t="s">
         <v>646</v>
       </c>
-      <c r="E214"/>
+      <c r="D214" t="s">
+        <v>645</v>
+      </c>
+      <c r="E214" t="s">
+        <v>646</v>
+      </c>
       <c r="F214" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>647</v>
       </c>
@@ -6952,12 +9001,17 @@
       <c r="C215" t="s">
         <v>649</v>
       </c>
-      <c r="E215"/>
+      <c r="D215" t="s">
+        <v>648</v>
+      </c>
+      <c r="E215" t="s">
+        <v>649</v>
+      </c>
       <c r="F215" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>650</v>
       </c>
@@ -6967,12 +9021,17 @@
       <c r="C216" t="s">
         <v>652</v>
       </c>
-      <c r="E216"/>
+      <c r="D216" t="s">
+        <v>651</v>
+      </c>
+      <c r="E216" t="s">
+        <v>652</v>
+      </c>
       <c r="F216" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>653</v>
       </c>
@@ -6982,12 +9041,17 @@
       <c r="C217" t="s">
         <v>655</v>
       </c>
-      <c r="E217"/>
+      <c r="D217" t="s">
+        <v>654</v>
+      </c>
+      <c r="E217" t="s">
+        <v>655</v>
+      </c>
       <c r="F217" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>656</v>
       </c>
@@ -6997,12 +9061,17 @@
       <c r="C218" t="s">
         <v>658</v>
       </c>
-      <c r="E218"/>
+      <c r="D218" t="s">
+        <v>657</v>
+      </c>
+      <c r="E218" t="s">
+        <v>658</v>
+      </c>
       <c r="F218" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>659</v>
       </c>
@@ -7012,12 +9081,17 @@
       <c r="C219" t="s">
         <v>661</v>
       </c>
-      <c r="E219"/>
+      <c r="D219" t="s">
+        <v>660</v>
+      </c>
+      <c r="E219" t="s">
+        <v>661</v>
+      </c>
       <c r="F219" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>662</v>
       </c>
@@ -7027,12 +9101,17 @@
       <c r="C220" t="s">
         <v>664</v>
       </c>
-      <c r="E220"/>
+      <c r="D220" t="s">
+        <v>663</v>
+      </c>
+      <c r="E220" t="s">
+        <v>664</v>
+      </c>
       <c r="F220" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>665</v>
       </c>
@@ -7042,12 +9121,17 @@
       <c r="C221" t="s">
         <v>667</v>
       </c>
-      <c r="E221"/>
+      <c r="D221" t="s">
+        <v>666</v>
+      </c>
+      <c r="E221" t="s">
+        <v>667</v>
+      </c>
       <c r="F221" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>668</v>
       </c>
@@ -7057,12 +9141,17 @@
       <c r="C222" t="s">
         <v>670</v>
       </c>
-      <c r="E222"/>
+      <c r="D222" t="s">
+        <v>669</v>
+      </c>
+      <c r="E222" t="s">
+        <v>670</v>
+      </c>
       <c r="F222" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>671</v>
       </c>
@@ -7072,12 +9161,17 @@
       <c r="C223" t="s">
         <v>673</v>
       </c>
-      <c r="E223"/>
+      <c r="D223" t="s">
+        <v>672</v>
+      </c>
+      <c r="E223" t="s">
+        <v>673</v>
+      </c>
       <c r="F223" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>674</v>
       </c>
@@ -7087,12 +9181,17 @@
       <c r="C224" t="s">
         <v>676</v>
       </c>
-      <c r="E224"/>
+      <c r="D224" t="s">
+        <v>675</v>
+      </c>
+      <c r="E224" t="s">
+        <v>676</v>
+      </c>
       <c r="F224" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>677</v>
       </c>
@@ -7102,12 +9201,17 @@
       <c r="C225" t="s">
         <v>679</v>
       </c>
-      <c r="E225"/>
+      <c r="D225" t="s">
+        <v>678</v>
+      </c>
+      <c r="E225" t="s">
+        <v>679</v>
+      </c>
       <c r="F225" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>680</v>
       </c>
@@ -7117,12 +9221,17 @@
       <c r="C226" t="s">
         <v>682</v>
       </c>
-      <c r="E226"/>
+      <c r="D226" t="s">
+        <v>681</v>
+      </c>
+      <c r="E226" t="s">
+        <v>682</v>
+      </c>
       <c r="F226" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>683</v>
       </c>
@@ -7132,12 +9241,17 @@
       <c r="C227" t="s">
         <v>685</v>
       </c>
-      <c r="E227"/>
+      <c r="D227" t="s">
+        <v>684</v>
+      </c>
+      <c r="E227" t="s">
+        <v>685</v>
+      </c>
       <c r="F227" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>686</v>
       </c>
@@ -7147,12 +9261,17 @@
       <c r="C228" t="s">
         <v>688</v>
       </c>
-      <c r="E228"/>
+      <c r="D228" t="s">
+        <v>687</v>
+      </c>
+      <c r="E228" t="s">
+        <v>688</v>
+      </c>
       <c r="F228" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>689</v>
       </c>
@@ -7162,12 +9281,17 @@
       <c r="C229" t="s">
         <v>691</v>
       </c>
-      <c r="E229"/>
+      <c r="D229" t="s">
+        <v>690</v>
+      </c>
+      <c r="E229" t="s">
+        <v>691</v>
+      </c>
       <c r="F229" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>692</v>
       </c>
@@ -7177,12 +9301,17 @@
       <c r="C230" t="s">
         <v>694</v>
       </c>
-      <c r="E230"/>
+      <c r="D230" t="s">
+        <v>693</v>
+      </c>
+      <c r="E230" t="s">
+        <v>694</v>
+      </c>
       <c r="F230" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>695</v>
       </c>
@@ -7192,12 +9321,17 @@
       <c r="C231" t="s">
         <v>697</v>
       </c>
-      <c r="E231"/>
+      <c r="D231" t="s">
+        <v>696</v>
+      </c>
+      <c r="E231" t="s">
+        <v>697</v>
+      </c>
       <c r="F231" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>698</v>
       </c>
@@ -7207,12 +9341,17 @@
       <c r="C232" t="s">
         <v>700</v>
       </c>
-      <c r="E232"/>
+      <c r="D232" t="s">
+        <v>699</v>
+      </c>
+      <c r="E232" t="s">
+        <v>700</v>
+      </c>
       <c r="F232" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>701</v>
       </c>
@@ -7222,12 +9361,17 @@
       <c r="C233" t="s">
         <v>703</v>
       </c>
-      <c r="E233"/>
+      <c r="D233" t="s">
+        <v>702</v>
+      </c>
+      <c r="E233" t="s">
+        <v>703</v>
+      </c>
       <c r="F233" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>704</v>
       </c>
@@ -7237,12 +9381,17 @@
       <c r="C234" t="s">
         <v>706</v>
       </c>
-      <c r="E234"/>
+      <c r="D234" t="s">
+        <v>705</v>
+      </c>
+      <c r="E234" t="s">
+        <v>706</v>
+      </c>
       <c r="F234" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>707</v>
       </c>
@@ -7252,12 +9401,17 @@
       <c r="C235" t="s">
         <v>709</v>
       </c>
-      <c r="E235"/>
+      <c r="D235" t="s">
+        <v>708</v>
+      </c>
+      <c r="E235" t="s">
+        <v>709</v>
+      </c>
       <c r="F235" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>710</v>
       </c>
@@ -7267,12 +9421,17 @@
       <c r="C236" t="s">
         <v>712</v>
       </c>
-      <c r="E236"/>
+      <c r="D236" t="s">
+        <v>711</v>
+      </c>
+      <c r="E236" t="s">
+        <v>712</v>
+      </c>
       <c r="F236" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>713</v>
       </c>
@@ -7282,12 +9441,17 @@
       <c r="C237" t="s">
         <v>715</v>
       </c>
-      <c r="E237"/>
+      <c r="D237" t="s">
+        <v>714</v>
+      </c>
+      <c r="E237" t="s">
+        <v>715</v>
+      </c>
       <c r="F237" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>716</v>
       </c>
@@ -7297,12 +9461,17 @@
       <c r="C238" t="s">
         <v>718</v>
       </c>
-      <c r="E238"/>
+      <c r="D238" t="s">
+        <v>717</v>
+      </c>
+      <c r="E238" t="s">
+        <v>718</v>
+      </c>
       <c r="F238" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>719</v>
       </c>
@@ -7312,12 +9481,17 @@
       <c r="C239" t="s">
         <v>721</v>
       </c>
-      <c r="E239"/>
+      <c r="D239" t="s">
+        <v>720</v>
+      </c>
+      <c r="E239" t="s">
+        <v>721</v>
+      </c>
       <c r="F239" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>722</v>
       </c>
@@ -7327,12 +9501,17 @@
       <c r="C240" t="s">
         <v>724</v>
       </c>
-      <c r="E240"/>
+      <c r="D240" t="s">
+        <v>723</v>
+      </c>
+      <c r="E240" t="s">
+        <v>724</v>
+      </c>
       <c r="F240" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>725</v>
       </c>
@@ -7342,12 +9521,17 @@
       <c r="C241" t="s">
         <v>727</v>
       </c>
-      <c r="E241"/>
+      <c r="D241" t="s">
+        <v>726</v>
+      </c>
+      <c r="E241" t="s">
+        <v>727</v>
+      </c>
       <c r="F241" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>728</v>
       </c>
@@ -7357,12 +9541,17 @@
       <c r="C242" t="s">
         <v>730</v>
       </c>
-      <c r="E242"/>
+      <c r="D242" t="s">
+        <v>729</v>
+      </c>
+      <c r="E242" t="s">
+        <v>730</v>
+      </c>
       <c r="F242" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>731</v>
       </c>
@@ -7372,12 +9561,17 @@
       <c r="C243" t="s">
         <v>733</v>
       </c>
-      <c r="E243"/>
+      <c r="D243" t="s">
+        <v>732</v>
+      </c>
+      <c r="E243" t="s">
+        <v>733</v>
+      </c>
       <c r="F243" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>734</v>
       </c>
@@ -7387,12 +9581,17 @@
       <c r="C244" t="s">
         <v>736</v>
       </c>
-      <c r="E244"/>
+      <c r="D244" t="s">
+        <v>735</v>
+      </c>
+      <c r="E244" t="s">
+        <v>736</v>
+      </c>
       <c r="F244" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>737</v>
       </c>
@@ -7402,12 +9601,17 @@
       <c r="C245" t="s">
         <v>739</v>
       </c>
-      <c r="E245"/>
+      <c r="D245" t="s">
+        <v>738</v>
+      </c>
+      <c r="E245" t="s">
+        <v>739</v>
+      </c>
       <c r="F245" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>740</v>
       </c>
@@ -7417,12 +9621,17 @@
       <c r="C246" t="s">
         <v>742</v>
       </c>
-      <c r="E246"/>
+      <c r="D246" t="s">
+        <v>741</v>
+      </c>
+      <c r="E246" t="s">
+        <v>742</v>
+      </c>
       <c r="F246" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>743</v>
       </c>
@@ -7432,12 +9641,17 @@
       <c r="C247" t="s">
         <v>745</v>
       </c>
-      <c r="E247"/>
+      <c r="D247" t="s">
+        <v>744</v>
+      </c>
+      <c r="E247" t="s">
+        <v>745</v>
+      </c>
       <c r="F247" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>746</v>
       </c>
@@ -7447,12 +9661,17 @@
       <c r="C248" t="s">
         <v>748</v>
       </c>
-      <c r="E248"/>
+      <c r="D248" t="s">
+        <v>747</v>
+      </c>
+      <c r="E248" t="s">
+        <v>748</v>
+      </c>
       <c r="F248" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>749</v>
       </c>
@@ -7462,12 +9681,17 @@
       <c r="C249" t="s">
         <v>751</v>
       </c>
-      <c r="E249"/>
+      <c r="D249" t="s">
+        <v>750</v>
+      </c>
+      <c r="E249" t="s">
+        <v>751</v>
+      </c>
       <c r="F249" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>752</v>
       </c>
@@ -7477,12 +9701,17 @@
       <c r="C250" t="s">
         <v>754</v>
       </c>
-      <c r="E250"/>
+      <c r="D250" t="s">
+        <v>753</v>
+      </c>
+      <c r="E250" t="s">
+        <v>754</v>
+      </c>
       <c r="F250" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>755</v>
       </c>
@@ -7492,12 +9721,17 @@
       <c r="C251" t="s">
         <v>757</v>
       </c>
-      <c r="E251"/>
+      <c r="D251" t="s">
+        <v>756</v>
+      </c>
+      <c r="E251" t="s">
+        <v>757</v>
+      </c>
       <c r="F251" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>758</v>
       </c>
@@ -7507,12 +9741,17 @@
       <c r="C252" t="s">
         <v>760</v>
       </c>
-      <c r="E252"/>
+      <c r="D252" t="s">
+        <v>759</v>
+      </c>
+      <c r="E252" t="s">
+        <v>760</v>
+      </c>
       <c r="F252" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>761</v>
       </c>
@@ -7522,12 +9761,17 @@
       <c r="C253" t="s">
         <v>763</v>
       </c>
-      <c r="E253"/>
+      <c r="D253" t="s">
+        <v>762</v>
+      </c>
+      <c r="E253" t="s">
+        <v>763</v>
+      </c>
       <c r="F253" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>764</v>
       </c>
@@ -7537,12 +9781,17 @@
       <c r="C254" t="s">
         <v>766</v>
       </c>
-      <c r="E254"/>
+      <c r="D254" t="s">
+        <v>765</v>
+      </c>
+      <c r="E254" t="s">
+        <v>766</v>
+      </c>
       <c r="F254" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>767</v>
       </c>
@@ -7552,12 +9801,17 @@
       <c r="C255" t="s">
         <v>769</v>
       </c>
-      <c r="E255"/>
+      <c r="D255" t="s">
+        <v>768</v>
+      </c>
+      <c r="E255" t="s">
+        <v>769</v>
+      </c>
       <c r="F255" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>770</v>
       </c>
@@ -7567,12 +9821,17 @@
       <c r="C256" t="s">
         <v>772</v>
       </c>
-      <c r="E256"/>
+      <c r="D256" t="s">
+        <v>771</v>
+      </c>
+      <c r="E256" t="s">
+        <v>772</v>
+      </c>
       <c r="F256" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>773</v>
       </c>
@@ -7582,12 +9841,17 @@
       <c r="C257" t="s">
         <v>775</v>
       </c>
-      <c r="E257"/>
+      <c r="D257" t="s">
+        <v>774</v>
+      </c>
+      <c r="E257" t="s">
+        <v>775</v>
+      </c>
       <c r="F257" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>776</v>
       </c>
@@ -7597,12 +9861,17 @@
       <c r="C258" t="s">
         <v>778</v>
       </c>
-      <c r="E258"/>
+      <c r="D258" t="s">
+        <v>777</v>
+      </c>
+      <c r="E258" t="s">
+        <v>778</v>
+      </c>
       <c r="F258" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>779</v>
       </c>
@@ -7612,12 +9881,17 @@
       <c r="C259" t="s">
         <v>781</v>
       </c>
-      <c r="E259"/>
+      <c r="D259" t="s">
+        <v>780</v>
+      </c>
+      <c r="E259" t="s">
+        <v>781</v>
+      </c>
       <c r="F259" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>782</v>
       </c>
@@ -7627,12 +9901,17 @@
       <c r="C260" t="s">
         <v>784</v>
       </c>
-      <c r="E260"/>
+      <c r="D260" t="s">
+        <v>783</v>
+      </c>
+      <c r="E260" t="s">
+        <v>784</v>
+      </c>
       <c r="F260" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>785</v>
       </c>
@@ -7642,12 +9921,17 @@
       <c r="C261" t="s">
         <v>787</v>
       </c>
-      <c r="E261"/>
+      <c r="D261" t="s">
+        <v>786</v>
+      </c>
+      <c r="E261" t="s">
+        <v>787</v>
+      </c>
       <c r="F261" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>788</v>
       </c>
@@ -7667,7 +9951,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>793</v>
       </c>
@@ -7687,7 +9971,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>798</v>
       </c>
@@ -7697,12 +9981,17 @@
       <c r="C264" t="s">
         <v>800</v>
       </c>
-      <c r="E264"/>
+      <c r="D264" t="s">
+        <v>799</v>
+      </c>
+      <c r="E264" t="s">
+        <v>800</v>
+      </c>
       <c r="F264" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>801</v>
       </c>
@@ -7712,12 +10001,17 @@
       <c r="C265" t="s">
         <v>803</v>
       </c>
-      <c r="E265"/>
+      <c r="D265" t="s">
+        <v>802</v>
+      </c>
+      <c r="E265" t="s">
+        <v>803</v>
+      </c>
       <c r="F265" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>804</v>
       </c>
@@ -7727,12 +10021,17 @@
       <c r="C266" t="s">
         <v>806</v>
       </c>
-      <c r="E266"/>
+      <c r="D266" t="s">
+        <v>805</v>
+      </c>
+      <c r="E266" t="s">
+        <v>806</v>
+      </c>
       <c r="F266" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>807</v>
       </c>
@@ -7742,12 +10041,17 @@
       <c r="C267" t="s">
         <v>809</v>
       </c>
-      <c r="E267"/>
+      <c r="D267" t="s">
+        <v>808</v>
+      </c>
+      <c r="E267" t="s">
+        <v>809</v>
+      </c>
       <c r="F267" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>810</v>
       </c>
@@ -7767,7 +10071,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>815</v>
       </c>
@@ -7777,12 +10081,17 @@
       <c r="C269" t="s">
         <v>817</v>
       </c>
-      <c r="E269"/>
+      <c r="D269" t="s">
+        <v>816</v>
+      </c>
+      <c r="E269" t="s">
+        <v>817</v>
+      </c>
       <c r="F269" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>818</v>
       </c>
@@ -7792,12 +10101,17 @@
       <c r="C270" t="s">
         <v>820</v>
       </c>
-      <c r="E270"/>
+      <c r="D270" t="s">
+        <v>819</v>
+      </c>
+      <c r="E270" t="s">
+        <v>820</v>
+      </c>
       <c r="F270" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>821</v>
       </c>
@@ -7807,12 +10121,17 @@
       <c r="C271" t="s">
         <v>823</v>
       </c>
-      <c r="E271"/>
+      <c r="D271" t="s">
+        <v>822</v>
+      </c>
+      <c r="E271" t="s">
+        <v>823</v>
+      </c>
       <c r="F271" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>824</v>
       </c>
@@ -7822,12 +10141,17 @@
       <c r="C272" t="s">
         <v>826</v>
       </c>
-      <c r="E272"/>
+      <c r="D272" t="s">
+        <v>825</v>
+      </c>
+      <c r="E272" t="s">
+        <v>826</v>
+      </c>
       <c r="F272" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>827</v>
       </c>
@@ -7837,12 +10161,17 @@
       <c r="C273" t="s">
         <v>829</v>
       </c>
-      <c r="E273"/>
+      <c r="D273" t="s">
+        <v>828</v>
+      </c>
+      <c r="E273" t="s">
+        <v>829</v>
+      </c>
       <c r="F273" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>830</v>
       </c>
@@ -7852,12 +10181,17 @@
       <c r="C274" t="s">
         <v>832</v>
       </c>
-      <c r="E274"/>
+      <c r="D274" t="s">
+        <v>831</v>
+      </c>
+      <c r="E274" t="s">
+        <v>832</v>
+      </c>
       <c r="F274" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>833</v>
       </c>
@@ -7867,12 +10201,17 @@
       <c r="C275" t="s">
         <v>835</v>
       </c>
-      <c r="E275"/>
+      <c r="D275" t="s">
+        <v>834</v>
+      </c>
+      <c r="E275" t="s">
+        <v>835</v>
+      </c>
       <c r="F275" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>836</v>
       </c>
@@ -7882,12 +10221,17 @@
       <c r="C276" t="s">
         <v>838</v>
       </c>
-      <c r="E276"/>
+      <c r="D276" t="s">
+        <v>837</v>
+      </c>
+      <c r="E276" t="s">
+        <v>838</v>
+      </c>
       <c r="F276" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>839</v>
       </c>
@@ -7897,12 +10241,17 @@
       <c r="C277" t="s">
         <v>841</v>
       </c>
-      <c r="E277"/>
+      <c r="D277" t="s">
+        <v>840</v>
+      </c>
+      <c r="E277" t="s">
+        <v>841</v>
+      </c>
       <c r="F277" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>842</v>
       </c>
@@ -7912,12 +10261,17 @@
       <c r="C278" t="s">
         <v>844</v>
       </c>
-      <c r="E278"/>
+      <c r="D278" t="s">
+        <v>843</v>
+      </c>
+      <c r="E278" t="s">
+        <v>844</v>
+      </c>
       <c r="F278" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>845</v>
       </c>
@@ -7927,12 +10281,17 @@
       <c r="C279" t="s">
         <v>847</v>
       </c>
-      <c r="E279"/>
+      <c r="D279" t="s">
+        <v>846</v>
+      </c>
+      <c r="E279" t="s">
+        <v>847</v>
+      </c>
       <c r="F279" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>848</v>
       </c>
@@ -7942,12 +10301,17 @@
       <c r="C280" t="s">
         <v>850</v>
       </c>
-      <c r="E280"/>
+      <c r="D280" t="s">
+        <v>849</v>
+      </c>
+      <c r="E280" t="s">
+        <v>850</v>
+      </c>
       <c r="F280" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>851</v>
       </c>
@@ -7957,12 +10321,17 @@
       <c r="C281" t="s">
         <v>853</v>
       </c>
-      <c r="E281"/>
+      <c r="D281" t="s">
+        <v>852</v>
+      </c>
+      <c r="E281" t="s">
+        <v>853</v>
+      </c>
       <c r="F281" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>854</v>
       </c>
@@ -7972,12 +10341,17 @@
       <c r="C282" t="s">
         <v>856</v>
       </c>
-      <c r="E282"/>
+      <c r="D282" t="s">
+        <v>855</v>
+      </c>
+      <c r="E282" t="s">
+        <v>856</v>
+      </c>
       <c r="F282" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>857</v>
       </c>
@@ -7987,12 +10361,17 @@
       <c r="C283" t="s">
         <v>859</v>
       </c>
-      <c r="E283"/>
+      <c r="D283" t="s">
+        <v>858</v>
+      </c>
+      <c r="E283" t="s">
+        <v>859</v>
+      </c>
       <c r="F283" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>860</v>
       </c>
@@ -8002,12 +10381,17 @@
       <c r="C284" t="s">
         <v>862</v>
       </c>
-      <c r="E284"/>
+      <c r="D284" t="s">
+        <v>861</v>
+      </c>
+      <c r="E284" t="s">
+        <v>862</v>
+      </c>
       <c r="F284" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>863</v>
       </c>
@@ -8017,12 +10401,17 @@
       <c r="C285" t="s">
         <v>865</v>
       </c>
-      <c r="E285"/>
+      <c r="D285" t="s">
+        <v>864</v>
+      </c>
+      <c r="E285" t="s">
+        <v>865</v>
+      </c>
       <c r="F285" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>866</v>
       </c>
@@ -8032,12 +10421,17 @@
       <c r="C286" t="s">
         <v>868</v>
       </c>
-      <c r="E286"/>
+      <c r="D286" t="s">
+        <v>867</v>
+      </c>
+      <c r="E286" t="s">
+        <v>868</v>
+      </c>
       <c r="F286" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>869</v>
       </c>
@@ -8057,7 +10451,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>874</v>
       </c>
@@ -8077,7 +10471,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>879</v>
       </c>
@@ -8087,12 +10481,17 @@
       <c r="C289" t="s">
         <v>881</v>
       </c>
-      <c r="E289"/>
+      <c r="D289" t="s">
+        <v>880</v>
+      </c>
+      <c r="E289" t="s">
+        <v>881</v>
+      </c>
       <c r="F289" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>882</v>
       </c>
@@ -8102,12 +10501,17 @@
       <c r="C290" t="s">
         <v>884</v>
       </c>
-      <c r="E290"/>
+      <c r="D290" t="s">
+        <v>883</v>
+      </c>
+      <c r="E290" t="s">
+        <v>884</v>
+      </c>
       <c r="F290" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>885</v>
       </c>
@@ -8117,12 +10521,17 @@
       <c r="C291" t="s">
         <v>887</v>
       </c>
-      <c r="E291"/>
+      <c r="D291" t="s">
+        <v>886</v>
+      </c>
+      <c r="E291" t="s">
+        <v>887</v>
+      </c>
       <c r="F291" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>888</v>
       </c>
@@ -8132,12 +10541,17 @@
       <c r="C292" t="s">
         <v>890</v>
       </c>
-      <c r="E292"/>
+      <c r="D292" t="s">
+        <v>889</v>
+      </c>
+      <c r="E292" t="s">
+        <v>890</v>
+      </c>
       <c r="F292" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>891</v>
       </c>
@@ -8147,12 +10561,17 @@
       <c r="C293" t="s">
         <v>893</v>
       </c>
-      <c r="E293"/>
+      <c r="D293" t="s">
+        <v>892</v>
+      </c>
+      <c r="E293" t="s">
+        <v>893</v>
+      </c>
       <c r="F293" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>894</v>
       </c>
@@ -8162,12 +10581,17 @@
       <c r="C294" t="s">
         <v>896</v>
       </c>
-      <c r="E294"/>
+      <c r="D294" t="s">
+        <v>895</v>
+      </c>
+      <c r="E294" t="s">
+        <v>896</v>
+      </c>
       <c r="F294" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>897</v>
       </c>
@@ -8177,12 +10601,17 @@
       <c r="C295" t="s">
         <v>899</v>
       </c>
-      <c r="E295"/>
+      <c r="D295" t="s">
+        <v>898</v>
+      </c>
+      <c r="E295" t="s">
+        <v>899</v>
+      </c>
       <c r="F295" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>900</v>
       </c>
@@ -8192,12 +10621,17 @@
       <c r="C296" t="s">
         <v>902</v>
       </c>
-      <c r="E296"/>
+      <c r="D296" t="s">
+        <v>901</v>
+      </c>
+      <c r="E296" t="s">
+        <v>902</v>
+      </c>
       <c r="F296" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>903</v>
       </c>
@@ -8207,12 +10641,17 @@
       <c r="C297" t="s">
         <v>905</v>
       </c>
-      <c r="E297"/>
+      <c r="D297" t="s">
+        <v>904</v>
+      </c>
+      <c r="E297" t="s">
+        <v>905</v>
+      </c>
       <c r="F297" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>906</v>
       </c>
@@ -8222,12 +10661,17 @@
       <c r="C298" t="s">
         <v>908</v>
       </c>
-      <c r="E298"/>
+      <c r="D298" t="s">
+        <v>907</v>
+      </c>
+      <c r="E298" t="s">
+        <v>908</v>
+      </c>
       <c r="F298" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>909</v>
       </c>
@@ -8237,12 +10681,17 @@
       <c r="C299" t="s">
         <v>911</v>
       </c>
-      <c r="E299"/>
+      <c r="D299" t="s">
+        <v>910</v>
+      </c>
+      <c r="E299" t="s">
+        <v>911</v>
+      </c>
       <c r="F299" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>912</v>
       </c>
@@ -8252,12 +10701,17 @@
       <c r="C300" t="s">
         <v>914</v>
       </c>
-      <c r="E300"/>
+      <c r="D300" t="s">
+        <v>913</v>
+      </c>
+      <c r="E300" t="s">
+        <v>914</v>
+      </c>
       <c r="F300" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>915</v>
       </c>
@@ -8267,12 +10721,17 @@
       <c r="C301" t="s">
         <v>917</v>
       </c>
-      <c r="E301"/>
+      <c r="D301" t="s">
+        <v>916</v>
+      </c>
+      <c r="E301" t="s">
+        <v>917</v>
+      </c>
       <c r="F301" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>918</v>
       </c>
@@ -8282,12 +10741,17 @@
       <c r="C302" t="s">
         <v>920</v>
       </c>
-      <c r="E302"/>
+      <c r="D302" t="s">
+        <v>919</v>
+      </c>
+      <c r="E302" t="s">
+        <v>920</v>
+      </c>
       <c r="F302" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>921</v>
       </c>
@@ -8297,12 +10761,17 @@
       <c r="C303" t="s">
         <v>923</v>
       </c>
-      <c r="E303"/>
+      <c r="D303" t="s">
+        <v>922</v>
+      </c>
+      <c r="E303" t="s">
+        <v>923</v>
+      </c>
       <c r="F303" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>924</v>
       </c>
@@ -8312,12 +10781,17 @@
       <c r="C304" t="s">
         <v>926</v>
       </c>
-      <c r="E304"/>
+      <c r="D304" t="s">
+        <v>925</v>
+      </c>
+      <c r="E304" t="s">
+        <v>926</v>
+      </c>
       <c r="F304" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>927</v>
       </c>
@@ -8327,12 +10801,17 @@
       <c r="C305" t="s">
         <v>929</v>
       </c>
-      <c r="E305"/>
+      <c r="D305" t="s">
+        <v>928</v>
+      </c>
+      <c r="E305" t="s">
+        <v>929</v>
+      </c>
       <c r="F305" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>930</v>
       </c>
@@ -8342,12 +10821,17 @@
       <c r="C306" t="s">
         <v>932</v>
       </c>
-      <c r="E306"/>
+      <c r="D306" t="s">
+        <v>931</v>
+      </c>
+      <c r="E306" t="s">
+        <v>932</v>
+      </c>
       <c r="F306" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>933</v>
       </c>
@@ -8357,12 +10841,17 @@
       <c r="C307" t="s">
         <v>935</v>
       </c>
-      <c r="E307"/>
+      <c r="D307" t="s">
+        <v>934</v>
+      </c>
+      <c r="E307" t="s">
+        <v>935</v>
+      </c>
       <c r="F307" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>936</v>
       </c>
@@ -8372,12 +10861,17 @@
       <c r="C308" t="s">
         <v>938</v>
       </c>
-      <c r="E308"/>
+      <c r="D308" t="s">
+        <v>937</v>
+      </c>
+      <c r="E308" t="s">
+        <v>938</v>
+      </c>
       <c r="F308" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>939</v>
       </c>
@@ -8387,12 +10881,17 @@
       <c r="C309" t="s">
         <v>941</v>
       </c>
-      <c r="E309"/>
+      <c r="D309" t="s">
+        <v>940</v>
+      </c>
+      <c r="E309" t="s">
+        <v>941</v>
+      </c>
       <c r="F309" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>942</v>
       </c>
@@ -8402,12 +10901,17 @@
       <c r="C310" t="s">
         <v>944</v>
       </c>
-      <c r="E310"/>
+      <c r="D310" t="s">
+        <v>943</v>
+      </c>
+      <c r="E310" t="s">
+        <v>944</v>
+      </c>
       <c r="F310" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>945</v>
       </c>
@@ -8417,12 +10921,17 @@
       <c r="C311" t="s">
         <v>947</v>
       </c>
-      <c r="E311"/>
+      <c r="D311" t="s">
+        <v>946</v>
+      </c>
+      <c r="E311" t="s">
+        <v>947</v>
+      </c>
       <c r="F311" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>948</v>
       </c>
@@ -8432,12 +10941,17 @@
       <c r="C312" t="s">
         <v>950</v>
       </c>
-      <c r="E312"/>
+      <c r="D312" t="s">
+        <v>949</v>
+      </c>
+      <c r="E312" t="s">
+        <v>950</v>
+      </c>
       <c r="F312" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>951</v>
       </c>
@@ -8447,12 +10961,17 @@
       <c r="C313" t="s">
         <v>953</v>
       </c>
-      <c r="E313"/>
+      <c r="D313" t="s">
+        <v>952</v>
+      </c>
+      <c r="E313" t="s">
+        <v>953</v>
+      </c>
       <c r="F313" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>954</v>
       </c>
@@ -8462,12 +10981,17 @@
       <c r="C314" t="s">
         <v>956</v>
       </c>
-      <c r="E314"/>
+      <c r="D314" t="s">
+        <v>955</v>
+      </c>
+      <c r="E314" t="s">
+        <v>956</v>
+      </c>
       <c r="F314" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>957</v>
       </c>
@@ -8477,12 +11001,17 @@
       <c r="C315" t="s">
         <v>959</v>
       </c>
-      <c r="E315"/>
+      <c r="D315" t="s">
+        <v>958</v>
+      </c>
+      <c r="E315" t="s">
+        <v>959</v>
+      </c>
       <c r="F315" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>960</v>
       </c>
@@ -8492,12 +11021,17 @@
       <c r="C316" t="s">
         <v>962</v>
       </c>
-      <c r="E316"/>
+      <c r="D316" t="s">
+        <v>961</v>
+      </c>
+      <c r="E316" t="s">
+        <v>962</v>
+      </c>
       <c r="F316" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>963</v>
       </c>
@@ -8507,12 +11041,17 @@
       <c r="C317" t="s">
         <v>965</v>
       </c>
-      <c r="E317"/>
+      <c r="D317" t="s">
+        <v>964</v>
+      </c>
+      <c r="E317" t="s">
+        <v>965</v>
+      </c>
       <c r="F317" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>966</v>
       </c>
@@ -8522,12 +11061,17 @@
       <c r="C318" t="s">
         <v>968</v>
       </c>
-      <c r="E318"/>
+      <c r="D318" t="s">
+        <v>967</v>
+      </c>
+      <c r="E318" t="s">
+        <v>968</v>
+      </c>
       <c r="F318" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>969</v>
       </c>
@@ -8537,12 +11081,17 @@
       <c r="C319" t="s">
         <v>971</v>
       </c>
-      <c r="E319"/>
+      <c r="D319" t="s">
+        <v>970</v>
+      </c>
+      <c r="E319" t="s">
+        <v>971</v>
+      </c>
       <c r="F319" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>972</v>
       </c>
@@ -8552,12 +11101,17 @@
       <c r="C320" t="s">
         <v>974</v>
       </c>
-      <c r="E320"/>
+      <c r="D320" t="s">
+        <v>973</v>
+      </c>
+      <c r="E320" t="s">
+        <v>974</v>
+      </c>
       <c r="F320" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>975</v>
       </c>
@@ -8567,12 +11121,17 @@
       <c r="C321" t="s">
         <v>977</v>
       </c>
-      <c r="E321"/>
+      <c r="D321" t="s">
+        <v>976</v>
+      </c>
+      <c r="E321" t="s">
+        <v>977</v>
+      </c>
       <c r="F321" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>978</v>
       </c>
@@ -8582,12 +11141,17 @@
       <c r="C322" t="s">
         <v>980</v>
       </c>
-      <c r="E322"/>
+      <c r="D322" t="s">
+        <v>979</v>
+      </c>
+      <c r="E322" t="s">
+        <v>980</v>
+      </c>
       <c r="F322" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>981</v>
       </c>
@@ -8597,12 +11161,17 @@
       <c r="C323" t="s">
         <v>983</v>
       </c>
-      <c r="E323"/>
+      <c r="D323" t="s">
+        <v>982</v>
+      </c>
+      <c r="E323" t="s">
+        <v>983</v>
+      </c>
       <c r="F323" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>984</v>
       </c>
@@ -8612,12 +11181,17 @@
       <c r="C324" t="s">
         <v>986</v>
       </c>
-      <c r="E324"/>
+      <c r="D324" t="s">
+        <v>985</v>
+      </c>
+      <c r="E324" t="s">
+        <v>986</v>
+      </c>
       <c r="F324" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>987</v>
       </c>
@@ -8627,12 +11201,17 @@
       <c r="C325" t="s">
         <v>989</v>
       </c>
-      <c r="E325"/>
+      <c r="D325" t="s">
+        <v>988</v>
+      </c>
+      <c r="E325" t="s">
+        <v>989</v>
+      </c>
       <c r="F325" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>990</v>
       </c>
@@ -8642,12 +11221,17 @@
       <c r="C326" t="s">
         <v>992</v>
       </c>
-      <c r="E326"/>
+      <c r="D326" t="s">
+        <v>991</v>
+      </c>
+      <c r="E326" t="s">
+        <v>992</v>
+      </c>
       <c r="F326" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>993</v>
       </c>
@@ -8657,12 +11241,17 @@
       <c r="C327" t="s">
         <v>995</v>
       </c>
-      <c r="E327"/>
+      <c r="D327" t="s">
+        <v>994</v>
+      </c>
+      <c r="E327" t="s">
+        <v>995</v>
+      </c>
       <c r="F327" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>996</v>
       </c>
@@ -8672,12 +11261,17 @@
       <c r="C328" t="s">
         <v>998</v>
       </c>
-      <c r="E328"/>
+      <c r="D328" t="s">
+        <v>997</v>
+      </c>
+      <c r="E328" t="s">
+        <v>998</v>
+      </c>
       <c r="F328" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>999</v>
       </c>
@@ -8687,12 +11281,17 @@
       <c r="C329" t="s">
         <v>1001</v>
       </c>
-      <c r="E329"/>
+      <c r="D329" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1001</v>
+      </c>
       <c r="F329" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>1002</v>
       </c>
@@ -8702,12 +11301,17 @@
       <c r="C330" t="s">
         <v>1004</v>
       </c>
-      <c r="E330"/>
+      <c r="D330" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1004</v>
+      </c>
       <c r="F330" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1005</v>
       </c>
@@ -8717,12 +11321,17 @@
       <c r="C331" t="s">
         <v>1007</v>
       </c>
-      <c r="E331"/>
+      <c r="D331" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1007</v>
+      </c>
       <c r="F331" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>1008</v>
       </c>
@@ -8732,12 +11341,17 @@
       <c r="C332" t="s">
         <v>1010</v>
       </c>
-      <c r="E332"/>
+      <c r="D332" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1010</v>
+      </c>
       <c r="F332" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1011</v>
       </c>
@@ -8747,12 +11361,17 @@
       <c r="C333" t="s">
         <v>1013</v>
       </c>
-      <c r="E333"/>
+      <c r="D333" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1013</v>
+      </c>
       <c r="F333" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1014</v>
       </c>
@@ -8762,12 +11381,17 @@
       <c r="C334" t="s">
         <v>1016</v>
       </c>
-      <c r="E334"/>
+      <c r="D334" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1016</v>
+      </c>
       <c r="F334" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>1017</v>
       </c>
@@ -8777,12 +11401,17 @@
       <c r="C335" t="s">
         <v>1019</v>
       </c>
-      <c r="E335"/>
+      <c r="D335" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1019</v>
+      </c>
       <c r="F335" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1020</v>
       </c>
@@ -8792,12 +11421,17 @@
       <c r="C336" t="s">
         <v>1022</v>
       </c>
-      <c r="E336"/>
+      <c r="D336" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1022</v>
+      </c>
       <c r="F336" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1023</v>
       </c>
@@ -8807,12 +11441,17 @@
       <c r="C337" t="s">
         <v>1025</v>
       </c>
-      <c r="E337"/>
+      <c r="D337" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1025</v>
+      </c>
       <c r="F337" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>1026</v>
       </c>
@@ -8822,64 +11461,106 @@
       <c r="C338" t="s">
         <v>1028</v>
       </c>
-      <c r="E338"/>
+      <c r="D338" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1028</v>
+      </c>
       <c r="F338" t="s">
         <v>1030</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1 A339:A1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B338">
-    <cfRule type="duplicateValues" dxfId="16" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C338">
-    <cfRule type="duplicateValues" dxfId="15" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A338">
-    <cfRule type="duplicateValues" dxfId="14" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A338">
-    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D262">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D263">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E263">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D268">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E268">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D151">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E287">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D288">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E288">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="43" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D150">
+    <cfRule type="duplicateValues" dxfId="41" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E150">
+    <cfRule type="duplicateValues" dxfId="40" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D152:D261">
+    <cfRule type="duplicateValues" dxfId="39" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152:E261">
+    <cfRule type="duplicateValues" dxfId="38" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D264:D267">
+    <cfRule type="duplicateValues" dxfId="37" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E264:E267">
+    <cfRule type="duplicateValues" dxfId="36" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D269:D286">
+    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E269:E286">
+    <cfRule type="duplicateValues" dxfId="34" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D289:D338">
+    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E289:E338">
+    <cfRule type="duplicateValues" dxfId="32" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Input_Files/province_names/francia_provinces.xlsx
+++ b/src/Input_Files/province_names/francia_provinces.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\france_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C38B08-8840-4581-9BA3-A2BC38462EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161D4E79-01E9-4733-9D03-21FD75826EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="provinces" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="1036">
   <si>
     <t>RGB</t>
   </si>
@@ -3116,6 +3127,18 @@
   </si>
   <si>
     <t>republic_government</t>
+  </si>
+  <si>
+    <t>holding_type</t>
+  </si>
+  <si>
+    <t>castle_holding</t>
+  </si>
+  <si>
+    <t>church_holding</t>
+  </si>
+  <si>
+    <t>city_holding</t>
   </si>
 </sst>
 </file>
@@ -3181,877 +3204,7 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="118">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4696,22 +3849,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F338"/>
+  <dimension ref="A1:G338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="K314" sqref="K314"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="25.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4728,10 +3883,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4748,10 +3906,13 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4768,10 +3929,13 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4788,10 +3952,13 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4808,10 +3975,13 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -4828,10 +3998,13 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4848,10 +4021,13 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G7" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4868,10 +4044,13 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -4888,10 +4067,13 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -4908,10 +4090,13 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -4928,10 +4113,13 @@
         <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -4948,10 +4136,13 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4968,10 +4159,13 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -4988,10 +4182,13 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -5008,10 +4205,13 @@
         <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -5028,10 +4228,13 @@
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -5048,10 +4251,13 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G17" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -5068,10 +4274,13 @@
         <v>56</v>
       </c>
       <c r="F18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G18" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -5088,10 +4297,13 @@
         <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -5108,10 +4320,13 @@
         <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -5128,10 +4343,13 @@
         <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1034</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -5148,10 +4366,13 @@
         <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -5168,10 +4389,13 @@
         <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -5188,10 +4412,13 @@
         <v>74</v>
       </c>
       <c r="F24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G24" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -5208,10 +4435,13 @@
         <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -5228,10 +4458,13 @@
         <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -5248,10 +4481,13 @@
         <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -5268,10 +4504,13 @@
         <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -5288,10 +4527,13 @@
         <v>89</v>
       </c>
       <c r="F29" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -5308,10 +4550,13 @@
         <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -5328,10 +4573,13 @@
         <v>95</v>
       </c>
       <c r="F31" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G31" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -5348,10 +4596,13 @@
         <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -5368,10 +4619,13 @@
         <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -5388,10 +4642,13 @@
         <v>104</v>
       </c>
       <c r="F34" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -5408,10 +4665,13 @@
         <v>107</v>
       </c>
       <c r="F35" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G35" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -5428,10 +4688,13 @@
         <v>110</v>
       </c>
       <c r="F36" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -5448,10 +4711,13 @@
         <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -5468,10 +4734,13 @@
         <v>116</v>
       </c>
       <c r="F38" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -5488,10 +4757,13 @@
         <v>119</v>
       </c>
       <c r="F39" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -5508,10 +4780,13 @@
         <v>122</v>
       </c>
       <c r="F40" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -5528,10 +4803,13 @@
         <v>125</v>
       </c>
       <c r="F41" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -5548,10 +4826,13 @@
         <v>128</v>
       </c>
       <c r="F42" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G42" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -5568,10 +4849,13 @@
         <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -5588,10 +4872,13 @@
         <v>134</v>
       </c>
       <c r="F44" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -5608,10 +4895,13 @@
         <v>137</v>
       </c>
       <c r="F45" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -5628,10 +4918,13 @@
         <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -5648,10 +4941,13 @@
         <v>143</v>
       </c>
       <c r="F47" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -5668,10 +4964,13 @@
         <v>146</v>
       </c>
       <c r="F48" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -5688,10 +4987,13 @@
         <v>149</v>
       </c>
       <c r="F49" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -5708,10 +5010,13 @@
         <v>152</v>
       </c>
       <c r="F50" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -5728,10 +5033,13 @@
         <v>155</v>
       </c>
       <c r="F51" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>156</v>
       </c>
@@ -5748,10 +5056,13 @@
         <v>158</v>
       </c>
       <c r="F52" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>159</v>
       </c>
@@ -5768,10 +5079,13 @@
         <v>161</v>
       </c>
       <c r="F53" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>162</v>
       </c>
@@ -5788,10 +5102,13 @@
         <v>164</v>
       </c>
       <c r="F54" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -5808,10 +5125,13 @@
         <v>167</v>
       </c>
       <c r="F55" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -5828,10 +5148,13 @@
         <v>170</v>
       </c>
       <c r="F56" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>171</v>
       </c>
@@ -5848,10 +5171,13 @@
         <v>173</v>
       </c>
       <c r="F57" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>174</v>
       </c>
@@ -5868,10 +5194,13 @@
         <v>176</v>
       </c>
       <c r="F58" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>177</v>
       </c>
@@ -5888,10 +5217,13 @@
         <v>179</v>
       </c>
       <c r="F59" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -5908,10 +5240,13 @@
         <v>182</v>
       </c>
       <c r="F60" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>183</v>
       </c>
@@ -5928,10 +5263,13 @@
         <v>185</v>
       </c>
       <c r="F61" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -5948,10 +5286,13 @@
         <v>188</v>
       </c>
       <c r="F62" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -5968,10 +5309,13 @@
         <v>191</v>
       </c>
       <c r="F63" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>192</v>
       </c>
@@ -5988,10 +5332,13 @@
         <v>194</v>
       </c>
       <c r="F64" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>195</v>
       </c>
@@ -6008,10 +5355,13 @@
         <v>197</v>
       </c>
       <c r="F65" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G65" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>198</v>
       </c>
@@ -6028,10 +5378,13 @@
         <v>200</v>
       </c>
       <c r="F66" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G66" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>201</v>
       </c>
@@ -6048,10 +5401,13 @@
         <v>203</v>
       </c>
       <c r="F67" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>204</v>
       </c>
@@ -6068,10 +5424,13 @@
         <v>206</v>
       </c>
       <c r="F68" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -6088,10 +5447,13 @@
         <v>209</v>
       </c>
       <c r="F69" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G69" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>210</v>
       </c>
@@ -6108,10 +5470,13 @@
         <v>212</v>
       </c>
       <c r="F70" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>213</v>
       </c>
@@ -6128,10 +5493,13 @@
         <v>215</v>
       </c>
       <c r="F71" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>216</v>
       </c>
@@ -6148,10 +5516,13 @@
         <v>218</v>
       </c>
       <c r="F72" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>219</v>
       </c>
@@ -6168,10 +5539,13 @@
         <v>221</v>
       </c>
       <c r="F73" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>222</v>
       </c>
@@ -6188,10 +5562,13 @@
         <v>224</v>
       </c>
       <c r="F74" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>225</v>
       </c>
@@ -6208,10 +5585,13 @@
         <v>227</v>
       </c>
       <c r="F75" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>228</v>
       </c>
@@ -6228,10 +5608,13 @@
         <v>230</v>
       </c>
       <c r="F76" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>231</v>
       </c>
@@ -6248,10 +5631,13 @@
         <v>233</v>
       </c>
       <c r="F77" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>234</v>
       </c>
@@ -6268,10 +5654,13 @@
         <v>236</v>
       </c>
       <c r="F78" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G78" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>237</v>
       </c>
@@ -6288,10 +5677,13 @@
         <v>239</v>
       </c>
       <c r="F79" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>240</v>
       </c>
@@ -6308,10 +5700,13 @@
         <v>242</v>
       </c>
       <c r="F80" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G80" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>243</v>
       </c>
@@ -6328,10 +5723,13 @@
         <v>245</v>
       </c>
       <c r="F81" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>246</v>
       </c>
@@ -6348,10 +5746,13 @@
         <v>248</v>
       </c>
       <c r="F82" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G82" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>249</v>
       </c>
@@ -6368,10 +5769,13 @@
         <v>251</v>
       </c>
       <c r="F83" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>252</v>
       </c>
@@ -6388,10 +5792,13 @@
         <v>254</v>
       </c>
       <c r="F84" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>255</v>
       </c>
@@ -6408,10 +5815,13 @@
         <v>257</v>
       </c>
       <c r="F85" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>258</v>
       </c>
@@ -6428,10 +5838,13 @@
         <v>260</v>
       </c>
       <c r="F86" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>261</v>
       </c>
@@ -6448,10 +5861,13 @@
         <v>263</v>
       </c>
       <c r="F87" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>264</v>
       </c>
@@ -6468,10 +5884,13 @@
         <v>266</v>
       </c>
       <c r="F88" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>267</v>
       </c>
@@ -6488,10 +5907,13 @@
         <v>269</v>
       </c>
       <c r="F89" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G89" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>270</v>
       </c>
@@ -6508,10 +5930,13 @@
         <v>272</v>
       </c>
       <c r="F90" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>273</v>
       </c>
@@ -6528,10 +5953,13 @@
         <v>275</v>
       </c>
       <c r="F91" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>276</v>
       </c>
@@ -6548,10 +5976,13 @@
         <v>278</v>
       </c>
       <c r="F92" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>279</v>
       </c>
@@ -6568,10 +5999,13 @@
         <v>281</v>
       </c>
       <c r="F93" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>282</v>
       </c>
@@ -6588,10 +6022,13 @@
         <v>284</v>
       </c>
       <c r="F94" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>285</v>
       </c>
@@ -6608,10 +6045,13 @@
         <v>287</v>
       </c>
       <c r="F95" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G95" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>288</v>
       </c>
@@ -6628,10 +6068,13 @@
         <v>290</v>
       </c>
       <c r="F96" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G96" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>291</v>
       </c>
@@ -6648,10 +6091,13 @@
         <v>293</v>
       </c>
       <c r="F97" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G97" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>294</v>
       </c>
@@ -6668,10 +6114,13 @@
         <v>296</v>
       </c>
       <c r="F98" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G98" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>297</v>
       </c>
@@ -6688,10 +6137,13 @@
         <v>299</v>
       </c>
       <c r="F99" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G99" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>300</v>
       </c>
@@ -6708,10 +6160,13 @@
         <v>302</v>
       </c>
       <c r="F100" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G100" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>303</v>
       </c>
@@ -6728,10 +6183,13 @@
         <v>305</v>
       </c>
       <c r="F101" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G101" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>306</v>
       </c>
@@ -6748,10 +6206,13 @@
         <v>308</v>
       </c>
       <c r="F102" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>309</v>
       </c>
@@ -6768,10 +6229,13 @@
         <v>311</v>
       </c>
       <c r="F103" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G103" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>312</v>
       </c>
@@ -6788,10 +6252,13 @@
         <v>314</v>
       </c>
       <c r="F104" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>315</v>
       </c>
@@ -6808,10 +6275,13 @@
         <v>317</v>
       </c>
       <c r="F105" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>318</v>
       </c>
@@ -6828,10 +6298,13 @@
         <v>320</v>
       </c>
       <c r="F106" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>321</v>
       </c>
@@ -6848,10 +6321,13 @@
         <v>323</v>
       </c>
       <c r="F107" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>324</v>
       </c>
@@ -6868,10 +6344,13 @@
         <v>326</v>
       </c>
       <c r="F108" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G108" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>327</v>
       </c>
@@ -6888,10 +6367,13 @@
         <v>329</v>
       </c>
       <c r="F109" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>330</v>
       </c>
@@ -6908,10 +6390,13 @@
         <v>332</v>
       </c>
       <c r="F110" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G110" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>333</v>
       </c>
@@ -6928,10 +6413,13 @@
         <v>335</v>
       </c>
       <c r="F111" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>336</v>
       </c>
@@ -6948,10 +6436,13 @@
         <v>338</v>
       </c>
       <c r="F112" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>339</v>
       </c>
@@ -6968,10 +6459,13 @@
         <v>341</v>
       </c>
       <c r="F113" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G113" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>342</v>
       </c>
@@ -6988,10 +6482,13 @@
         <v>344</v>
       </c>
       <c r="F114" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G114" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>345</v>
       </c>
@@ -7008,10 +6505,13 @@
         <v>347</v>
       </c>
       <c r="F115" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>348</v>
       </c>
@@ -7028,10 +6528,13 @@
         <v>350</v>
       </c>
       <c r="F116" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>351</v>
       </c>
@@ -7048,10 +6551,13 @@
         <v>353</v>
       </c>
       <c r="F117" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>354</v>
       </c>
@@ -7068,10 +6574,13 @@
         <v>356</v>
       </c>
       <c r="F118" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>357</v>
       </c>
@@ -7088,10 +6597,13 @@
         <v>359</v>
       </c>
       <c r="F119" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>360</v>
       </c>
@@ -7108,10 +6620,13 @@
         <v>362</v>
       </c>
       <c r="F120" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G120" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>363</v>
       </c>
@@ -7128,10 +6643,13 @@
         <v>365</v>
       </c>
       <c r="F121" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>366</v>
       </c>
@@ -7148,10 +6666,13 @@
         <v>368</v>
       </c>
       <c r="F122" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>369</v>
       </c>
@@ -7168,10 +6689,13 @@
         <v>371</v>
       </c>
       <c r="F123" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G123" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>372</v>
       </c>
@@ -7188,10 +6712,13 @@
         <v>374</v>
       </c>
       <c r="F124" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>375</v>
       </c>
@@ -7208,10 +6735,13 @@
         <v>377</v>
       </c>
       <c r="F125" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>378</v>
       </c>
@@ -7228,10 +6758,13 @@
         <v>380</v>
       </c>
       <c r="F126" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>381</v>
       </c>
@@ -7248,10 +6781,13 @@
         <v>383</v>
       </c>
       <c r="F127" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>384</v>
       </c>
@@ -7268,10 +6804,13 @@
         <v>386</v>
       </c>
       <c r="F128" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G128" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>387</v>
       </c>
@@ -7288,10 +6827,13 @@
         <v>389</v>
       </c>
       <c r="F129" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>390</v>
       </c>
@@ -7308,10 +6850,13 @@
         <v>392</v>
       </c>
       <c r="F130" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>393</v>
       </c>
@@ -7328,10 +6873,13 @@
         <v>395</v>
       </c>
       <c r="F131" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>396</v>
       </c>
@@ -7348,10 +6896,13 @@
         <v>398</v>
       </c>
       <c r="F132" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>399</v>
       </c>
@@ -7368,10 +6919,13 @@
         <v>401</v>
       </c>
       <c r="F133" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>402</v>
       </c>
@@ -7388,10 +6942,13 @@
         <v>404</v>
       </c>
       <c r="F134" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>405</v>
       </c>
@@ -7408,10 +6965,13 @@
         <v>407</v>
       </c>
       <c r="F135" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>408</v>
       </c>
@@ -7428,10 +6988,13 @@
         <v>410</v>
       </c>
       <c r="F136" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>411</v>
       </c>
@@ -7448,10 +7011,13 @@
         <v>413</v>
       </c>
       <c r="F137" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>414</v>
       </c>
@@ -7468,10 +7034,13 @@
         <v>416</v>
       </c>
       <c r="F138" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>417</v>
       </c>
@@ -7488,10 +7057,13 @@
         <v>419</v>
       </c>
       <c r="F139" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>420</v>
       </c>
@@ -7508,10 +7080,13 @@
         <v>422</v>
       </c>
       <c r="F140" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>423</v>
       </c>
@@ -7528,10 +7103,13 @@
         <v>425</v>
       </c>
       <c r="F141" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>426</v>
       </c>
@@ -7548,10 +7126,13 @@
         <v>428</v>
       </c>
       <c r="F142" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>429</v>
       </c>
@@ -7568,10 +7149,13 @@
         <v>431</v>
       </c>
       <c r="F143" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>432</v>
       </c>
@@ -7588,10 +7172,13 @@
         <v>434</v>
       </c>
       <c r="F144" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>435</v>
       </c>
@@ -7608,10 +7195,13 @@
         <v>437</v>
       </c>
       <c r="F145" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>438</v>
       </c>
@@ -7628,10 +7218,13 @@
         <v>440</v>
       </c>
       <c r="F146" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>441</v>
       </c>
@@ -7648,10 +7241,13 @@
         <v>443</v>
       </c>
       <c r="F147" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>444</v>
       </c>
@@ -7668,10 +7264,13 @@
         <v>446</v>
       </c>
       <c r="F148" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>447</v>
       </c>
@@ -7688,10 +7287,13 @@
         <v>449</v>
       </c>
       <c r="F149" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>450</v>
       </c>
@@ -7708,10 +7310,13 @@
         <v>452</v>
       </c>
       <c r="F150" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>453</v>
       </c>
@@ -7728,10 +7333,13 @@
         <v>457</v>
       </c>
       <c r="F151" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>458</v>
       </c>
@@ -7748,10 +7356,13 @@
         <v>460</v>
       </c>
       <c r="F152" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>461</v>
       </c>
@@ -7768,10 +7379,13 @@
         <v>463</v>
       </c>
       <c r="F153" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>464</v>
       </c>
@@ -7788,10 +7402,13 @@
         <v>466</v>
       </c>
       <c r="F154" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>467</v>
       </c>
@@ -7808,10 +7425,13 @@
         <v>469</v>
       </c>
       <c r="F155" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>470</v>
       </c>
@@ -7828,10 +7448,13 @@
         <v>472</v>
       </c>
       <c r="F156" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>473</v>
       </c>
@@ -7848,10 +7471,13 @@
         <v>475</v>
       </c>
       <c r="F157" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>476</v>
       </c>
@@ -7868,10 +7494,13 @@
         <v>478</v>
       </c>
       <c r="F158" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>479</v>
       </c>
@@ -7888,10 +7517,13 @@
         <v>481</v>
       </c>
       <c r="F159" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>482</v>
       </c>
@@ -7908,10 +7540,13 @@
         <v>484</v>
       </c>
       <c r="F160" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>485</v>
       </c>
@@ -7928,10 +7563,13 @@
         <v>487</v>
       </c>
       <c r="F161" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>488</v>
       </c>
@@ -7948,10 +7586,13 @@
         <v>490</v>
       </c>
       <c r="F162" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>491</v>
       </c>
@@ -7968,10 +7609,13 @@
         <v>493</v>
       </c>
       <c r="F163" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>494</v>
       </c>
@@ -7988,10 +7632,13 @@
         <v>496</v>
       </c>
       <c r="F164" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>497</v>
       </c>
@@ -8008,10 +7655,13 @@
         <v>499</v>
       </c>
       <c r="F165" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>500</v>
       </c>
@@ -8028,10 +7678,13 @@
         <v>502</v>
       </c>
       <c r="F166" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>503</v>
       </c>
@@ -8048,10 +7701,13 @@
         <v>505</v>
       </c>
       <c r="F167" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>506</v>
       </c>
@@ -8068,10 +7724,13 @@
         <v>508</v>
       </c>
       <c r="F168" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>509</v>
       </c>
@@ -8088,10 +7747,13 @@
         <v>511</v>
       </c>
       <c r="F169" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>512</v>
       </c>
@@ -8108,10 +7770,13 @@
         <v>514</v>
       </c>
       <c r="F170" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>515</v>
       </c>
@@ -8128,10 +7793,13 @@
         <v>517</v>
       </c>
       <c r="F171" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>518</v>
       </c>
@@ -8148,10 +7816,13 @@
         <v>520</v>
       </c>
       <c r="F172" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>521</v>
       </c>
@@ -8168,10 +7839,13 @@
         <v>523</v>
       </c>
       <c r="F173" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>524</v>
       </c>
@@ -8188,10 +7862,13 @@
         <v>526</v>
       </c>
       <c r="F174" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>527</v>
       </c>
@@ -8208,10 +7885,13 @@
         <v>529</v>
       </c>
       <c r="F175" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>530</v>
       </c>
@@ -8228,10 +7908,13 @@
         <v>532</v>
       </c>
       <c r="F176" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>533</v>
       </c>
@@ -8248,10 +7931,13 @@
         <v>535</v>
       </c>
       <c r="F177" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>536</v>
       </c>
@@ -8268,10 +7954,13 @@
         <v>538</v>
       </c>
       <c r="F178" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>539</v>
       </c>
@@ -8288,10 +7977,13 @@
         <v>541</v>
       </c>
       <c r="F179" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>542</v>
       </c>
@@ -8308,10 +8000,13 @@
         <v>544</v>
       </c>
       <c r="F180" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>545</v>
       </c>
@@ -8328,10 +8023,13 @@
         <v>547</v>
       </c>
       <c r="F181" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>548</v>
       </c>
@@ -8348,10 +8046,13 @@
         <v>550</v>
       </c>
       <c r="F182" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>551</v>
       </c>
@@ -8368,10 +8069,13 @@
         <v>553</v>
       </c>
       <c r="F183" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>554</v>
       </c>
@@ -8388,10 +8092,13 @@
         <v>556</v>
       </c>
       <c r="F184" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>557</v>
       </c>
@@ -8408,10 +8115,13 @@
         <v>559</v>
       </c>
       <c r="F185" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>560</v>
       </c>
@@ -8428,10 +8138,13 @@
         <v>562</v>
       </c>
       <c r="F186" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>563</v>
       </c>
@@ -8448,10 +8161,13 @@
         <v>565</v>
       </c>
       <c r="F187" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>566</v>
       </c>
@@ -8468,10 +8184,13 @@
         <v>568</v>
       </c>
       <c r="F188" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>569</v>
       </c>
@@ -8488,10 +8207,13 @@
         <v>571</v>
       </c>
       <c r="F189" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>572</v>
       </c>
@@ -8508,10 +8230,13 @@
         <v>574</v>
       </c>
       <c r="F190" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>575</v>
       </c>
@@ -8528,10 +8253,13 @@
         <v>577</v>
       </c>
       <c r="F191" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>578</v>
       </c>
@@ -8548,10 +8276,13 @@
         <v>580</v>
       </c>
       <c r="F192" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G192" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>581</v>
       </c>
@@ -8568,10 +8299,13 @@
         <v>583</v>
       </c>
       <c r="F193" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G193" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>584</v>
       </c>
@@ -8588,10 +8322,13 @@
         <v>586</v>
       </c>
       <c r="F194" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>587</v>
       </c>
@@ -8608,10 +8345,13 @@
         <v>589</v>
       </c>
       <c r="F195" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G195" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>590</v>
       </c>
@@ -8628,10 +8368,13 @@
         <v>592</v>
       </c>
       <c r="F196" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>593</v>
       </c>
@@ -8648,10 +8391,13 @@
         <v>595</v>
       </c>
       <c r="F197" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G197" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>596</v>
       </c>
@@ -8668,10 +8414,13 @@
         <v>598</v>
       </c>
       <c r="F198" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G198" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>599</v>
       </c>
@@ -8688,10 +8437,13 @@
         <v>601</v>
       </c>
       <c r="F199" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G199" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>602</v>
       </c>
@@ -8708,10 +8460,13 @@
         <v>604</v>
       </c>
       <c r="F200" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>605</v>
       </c>
@@ -8728,10 +8483,13 @@
         <v>607</v>
       </c>
       <c r="F201" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>608</v>
       </c>
@@ -8748,10 +8506,13 @@
         <v>610</v>
       </c>
       <c r="F202" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G202" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>611</v>
       </c>
@@ -8768,10 +8529,13 @@
         <v>613</v>
       </c>
       <c r="F203" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G203" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>614</v>
       </c>
@@ -8788,10 +8552,13 @@
         <v>616</v>
       </c>
       <c r="F204" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G204" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>617</v>
       </c>
@@ -8808,10 +8575,13 @@
         <v>619</v>
       </c>
       <c r="F205" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G205" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>620</v>
       </c>
@@ -8828,10 +8598,13 @@
         <v>622</v>
       </c>
       <c r="F206" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G206" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>623</v>
       </c>
@@ -8848,10 +8621,13 @@
         <v>625</v>
       </c>
       <c r="F207" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G207" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>626</v>
       </c>
@@ -8868,10 +8644,13 @@
         <v>628</v>
       </c>
       <c r="F208" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G208" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>629</v>
       </c>
@@ -8888,10 +8667,13 @@
         <v>631</v>
       </c>
       <c r="F209" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G209" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>632</v>
       </c>
@@ -8908,10 +8690,13 @@
         <v>634</v>
       </c>
       <c r="F210" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G210" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>635</v>
       </c>
@@ -8928,10 +8713,13 @@
         <v>637</v>
       </c>
       <c r="F211" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G211" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>638</v>
       </c>
@@ -8948,10 +8736,13 @@
         <v>640</v>
       </c>
       <c r="F212" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G212" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>641</v>
       </c>
@@ -8968,10 +8759,13 @@
         <v>643</v>
       </c>
       <c r="F213" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G213" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>644</v>
       </c>
@@ -8988,10 +8782,13 @@
         <v>646</v>
       </c>
       <c r="F214" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G214" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>647</v>
       </c>
@@ -9008,10 +8805,13 @@
         <v>649</v>
       </c>
       <c r="F215" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G215" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>650</v>
       </c>
@@ -9028,10 +8828,13 @@
         <v>652</v>
       </c>
       <c r="F216" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G216" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>653</v>
       </c>
@@ -9048,10 +8851,13 @@
         <v>655</v>
       </c>
       <c r="F217" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G217" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>656</v>
       </c>
@@ -9068,10 +8874,13 @@
         <v>658</v>
       </c>
       <c r="F218" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G218" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>659</v>
       </c>
@@ -9088,10 +8897,13 @@
         <v>661</v>
       </c>
       <c r="F219" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G219" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>662</v>
       </c>
@@ -9108,10 +8920,13 @@
         <v>664</v>
       </c>
       <c r="F220" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G220" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>665</v>
       </c>
@@ -9128,10 +8943,13 @@
         <v>667</v>
       </c>
       <c r="F221" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G221" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>668</v>
       </c>
@@ -9148,10 +8966,13 @@
         <v>670</v>
       </c>
       <c r="F222" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G222" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>671</v>
       </c>
@@ -9168,10 +8989,13 @@
         <v>673</v>
       </c>
       <c r="F223" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G223" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>674</v>
       </c>
@@ -9188,10 +9012,13 @@
         <v>676</v>
       </c>
       <c r="F224" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G224" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>677</v>
       </c>
@@ -9208,10 +9035,13 @@
         <v>679</v>
       </c>
       <c r="F225" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G225" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>680</v>
       </c>
@@ -9228,10 +9058,13 @@
         <v>682</v>
       </c>
       <c r="F226" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G226" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>683</v>
       </c>
@@ -9248,10 +9081,13 @@
         <v>685</v>
       </c>
       <c r="F227" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G227" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>686</v>
       </c>
@@ -9268,10 +9104,13 @@
         <v>688</v>
       </c>
       <c r="F228" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G228" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>689</v>
       </c>
@@ -9288,10 +9127,13 @@
         <v>691</v>
       </c>
       <c r="F229" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G229" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>692</v>
       </c>
@@ -9308,10 +9150,13 @@
         <v>694</v>
       </c>
       <c r="F230" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G230" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>695</v>
       </c>
@@ -9328,10 +9173,13 @@
         <v>697</v>
       </c>
       <c r="F231" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G231" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>698</v>
       </c>
@@ -9348,10 +9196,13 @@
         <v>700</v>
       </c>
       <c r="F232" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G232" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>701</v>
       </c>
@@ -9368,10 +9219,13 @@
         <v>703</v>
       </c>
       <c r="F233" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G233" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>704</v>
       </c>
@@ -9388,10 +9242,13 @@
         <v>706</v>
       </c>
       <c r="F234" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G234" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>707</v>
       </c>
@@ -9408,10 +9265,13 @@
         <v>709</v>
       </c>
       <c r="F235" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G235" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>710</v>
       </c>
@@ -9428,10 +9288,13 @@
         <v>712</v>
       </c>
       <c r="F236" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G236" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>713</v>
       </c>
@@ -9448,10 +9311,13 @@
         <v>715</v>
       </c>
       <c r="F237" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G237" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>716</v>
       </c>
@@ -9468,10 +9334,13 @@
         <v>718</v>
       </c>
       <c r="F238" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G238" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>719</v>
       </c>
@@ -9488,10 +9357,13 @@
         <v>721</v>
       </c>
       <c r="F239" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G239" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>722</v>
       </c>
@@ -9508,10 +9380,13 @@
         <v>724</v>
       </c>
       <c r="F240" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G240" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>725</v>
       </c>
@@ -9528,10 +9403,13 @@
         <v>727</v>
       </c>
       <c r="F241" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G241" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>728</v>
       </c>
@@ -9548,10 +9426,13 @@
         <v>730</v>
       </c>
       <c r="F242" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G242" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>731</v>
       </c>
@@ -9568,10 +9449,13 @@
         <v>733</v>
       </c>
       <c r="F243" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G243" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>734</v>
       </c>
@@ -9588,10 +9472,13 @@
         <v>736</v>
       </c>
       <c r="F244" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G244" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>737</v>
       </c>
@@ -9608,10 +9495,13 @@
         <v>739</v>
       </c>
       <c r="F245" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G245" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>740</v>
       </c>
@@ -9628,10 +9518,13 @@
         <v>742</v>
       </c>
       <c r="F246" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G246" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>743</v>
       </c>
@@ -9648,10 +9541,13 @@
         <v>745</v>
       </c>
       <c r="F247" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G247" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>746</v>
       </c>
@@ -9668,10 +9564,13 @@
         <v>748</v>
       </c>
       <c r="F248" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G248" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>749</v>
       </c>
@@ -9688,10 +9587,13 @@
         <v>751</v>
       </c>
       <c r="F249" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G249" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>752</v>
       </c>
@@ -9708,10 +9610,13 @@
         <v>754</v>
       </c>
       <c r="F250" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G250" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>755</v>
       </c>
@@ -9728,10 +9633,13 @@
         <v>757</v>
       </c>
       <c r="F251" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G251" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>758</v>
       </c>
@@ -9748,10 +9656,13 @@
         <v>760</v>
       </c>
       <c r="F252" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G252" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>761</v>
       </c>
@@ -9768,10 +9679,13 @@
         <v>763</v>
       </c>
       <c r="F253" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G253" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>764</v>
       </c>
@@ -9788,10 +9702,13 @@
         <v>766</v>
       </c>
       <c r="F254" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G254" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>767</v>
       </c>
@@ -9808,10 +9725,13 @@
         <v>769</v>
       </c>
       <c r="F255" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G255" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>770</v>
       </c>
@@ -9828,10 +9748,13 @@
         <v>772</v>
       </c>
       <c r="F256" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G256" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>773</v>
       </c>
@@ -9848,10 +9771,13 @@
         <v>775</v>
       </c>
       <c r="F257" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G257" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>776</v>
       </c>
@@ -9868,10 +9794,13 @@
         <v>778</v>
       </c>
       <c r="F258" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G258" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>779</v>
       </c>
@@ -9888,10 +9817,13 @@
         <v>781</v>
       </c>
       <c r="F259" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G259" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>782</v>
       </c>
@@ -9908,10 +9840,13 @@
         <v>784</v>
       </c>
       <c r="F260" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G260" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>785</v>
       </c>
@@ -9928,10 +9863,13 @@
         <v>787</v>
       </c>
       <c r="F261" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G261" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>788</v>
       </c>
@@ -9948,10 +9886,13 @@
         <v>792</v>
       </c>
       <c r="F262" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G262" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>793</v>
       </c>
@@ -9968,10 +9909,13 @@
         <v>797</v>
       </c>
       <c r="F263" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G263" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>798</v>
       </c>
@@ -9988,10 +9932,13 @@
         <v>800</v>
       </c>
       <c r="F264" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G264" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>801</v>
       </c>
@@ -10008,10 +9955,13 @@
         <v>803</v>
       </c>
       <c r="F265" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G265" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>804</v>
       </c>
@@ -10028,10 +9978,13 @@
         <v>806</v>
       </c>
       <c r="F266" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G266" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>807</v>
       </c>
@@ -10048,10 +10001,13 @@
         <v>809</v>
       </c>
       <c r="F267" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G267" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>810</v>
       </c>
@@ -10068,10 +10024,13 @@
         <v>814</v>
       </c>
       <c r="F268" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G268" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>815</v>
       </c>
@@ -10088,10 +10047,13 @@
         <v>817</v>
       </c>
       <c r="F269" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G269" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>818</v>
       </c>
@@ -10108,10 +10070,13 @@
         <v>820</v>
       </c>
       <c r="F270" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G270" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>821</v>
       </c>
@@ -10128,10 +10093,13 @@
         <v>823</v>
       </c>
       <c r="F271" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G271" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>824</v>
       </c>
@@ -10148,10 +10116,13 @@
         <v>826</v>
       </c>
       <c r="F272" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G272" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>827</v>
       </c>
@@ -10168,10 +10139,13 @@
         <v>829</v>
       </c>
       <c r="F273" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G273" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>830</v>
       </c>
@@ -10188,10 +10162,13 @@
         <v>832</v>
       </c>
       <c r="F274" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G274" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>833</v>
       </c>
@@ -10208,10 +10185,13 @@
         <v>835</v>
       </c>
       <c r="F275" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G275" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>836</v>
       </c>
@@ -10228,10 +10208,13 @@
         <v>838</v>
       </c>
       <c r="F276" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G276" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>839</v>
       </c>
@@ -10248,10 +10231,13 @@
         <v>841</v>
       </c>
       <c r="F277" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G277" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>842</v>
       </c>
@@ -10268,10 +10254,13 @@
         <v>844</v>
       </c>
       <c r="F278" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G278" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>845</v>
       </c>
@@ -10288,10 +10277,13 @@
         <v>847</v>
       </c>
       <c r="F279" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>848</v>
       </c>
@@ -10308,10 +10300,13 @@
         <v>850</v>
       </c>
       <c r="F280" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G280" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>851</v>
       </c>
@@ -10328,10 +10323,13 @@
         <v>853</v>
       </c>
       <c r="F281" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G281" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>854</v>
       </c>
@@ -10348,10 +10346,13 @@
         <v>856</v>
       </c>
       <c r="F282" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G282" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>857</v>
       </c>
@@ -10368,10 +10369,13 @@
         <v>859</v>
       </c>
       <c r="F283" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G283" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>860</v>
       </c>
@@ -10388,10 +10392,13 @@
         <v>862</v>
       </c>
       <c r="F284" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>863</v>
       </c>
@@ -10408,10 +10415,13 @@
         <v>865</v>
       </c>
       <c r="F285" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G285" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>866</v>
       </c>
@@ -10428,10 +10438,13 @@
         <v>868</v>
       </c>
       <c r="F286" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>869</v>
       </c>
@@ -10448,10 +10461,13 @@
         <v>873</v>
       </c>
       <c r="F287" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>874</v>
       </c>
@@ -10468,10 +10484,13 @@
         <v>878</v>
       </c>
       <c r="F288" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G288" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>879</v>
       </c>
@@ -10488,10 +10507,13 @@
         <v>881</v>
       </c>
       <c r="F289" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G289" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>882</v>
       </c>
@@ -10508,10 +10530,13 @@
         <v>884</v>
       </c>
       <c r="F290" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G290" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>885</v>
       </c>
@@ -10528,10 +10553,13 @@
         <v>887</v>
       </c>
       <c r="F291" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G291" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>888</v>
       </c>
@@ -10548,10 +10576,13 @@
         <v>890</v>
       </c>
       <c r="F292" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G292" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>891</v>
       </c>
@@ -10568,10 +10599,13 @@
         <v>893</v>
       </c>
       <c r="F293" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G293" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>894</v>
       </c>
@@ -10588,10 +10622,13 @@
         <v>896</v>
       </c>
       <c r="F294" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G294" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>897</v>
       </c>
@@ -10608,10 +10645,13 @@
         <v>899</v>
       </c>
       <c r="F295" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G295" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>900</v>
       </c>
@@ -10628,10 +10668,13 @@
         <v>902</v>
       </c>
       <c r="F296" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G296" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>903</v>
       </c>
@@ -10648,10 +10691,13 @@
         <v>905</v>
       </c>
       <c r="F297" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G297" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>906</v>
       </c>
@@ -10668,10 +10714,13 @@
         <v>908</v>
       </c>
       <c r="F298" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G298" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>909</v>
       </c>
@@ -10688,10 +10737,13 @@
         <v>911</v>
       </c>
       <c r="F299" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G299" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>912</v>
       </c>
@@ -10708,10 +10760,13 @@
         <v>914</v>
       </c>
       <c r="F300" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G300" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>915</v>
       </c>
@@ -10728,10 +10783,13 @@
         <v>917</v>
       </c>
       <c r="F301" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G301" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>918</v>
       </c>
@@ -10748,10 +10806,13 @@
         <v>920</v>
       </c>
       <c r="F302" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G302" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>921</v>
       </c>
@@ -10768,10 +10829,13 @@
         <v>923</v>
       </c>
       <c r="F303" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G303" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>924</v>
       </c>
@@ -10788,10 +10852,13 @@
         <v>926</v>
       </c>
       <c r="F304" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G304" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>927</v>
       </c>
@@ -10808,10 +10875,13 @@
         <v>929</v>
       </c>
       <c r="F305" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G305" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>930</v>
       </c>
@@ -10828,10 +10898,13 @@
         <v>932</v>
       </c>
       <c r="F306" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G306" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>933</v>
       </c>
@@ -10848,10 +10921,13 @@
         <v>935</v>
       </c>
       <c r="F307" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G307" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>936</v>
       </c>
@@ -10868,10 +10944,13 @@
         <v>938</v>
       </c>
       <c r="F308" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G308" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>939</v>
       </c>
@@ -10888,10 +10967,13 @@
         <v>941</v>
       </c>
       <c r="F309" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G309" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>942</v>
       </c>
@@ -10908,10 +10990,13 @@
         <v>944</v>
       </c>
       <c r="F310" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G310" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>945</v>
       </c>
@@ -10928,10 +11013,13 @@
         <v>947</v>
       </c>
       <c r="F311" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G311" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>948</v>
       </c>
@@ -10948,10 +11036,13 @@
         <v>950</v>
       </c>
       <c r="F312" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G312" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>951</v>
       </c>
@@ -10968,10 +11059,13 @@
         <v>953</v>
       </c>
       <c r="F313" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G313" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>954</v>
       </c>
@@ -10988,10 +11082,13 @@
         <v>956</v>
       </c>
       <c r="F314" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G314" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>957</v>
       </c>
@@ -11008,10 +11105,13 @@
         <v>959</v>
       </c>
       <c r="F315" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G315" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>960</v>
       </c>
@@ -11028,10 +11128,13 @@
         <v>962</v>
       </c>
       <c r="F316" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G316" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>963</v>
       </c>
@@ -11048,10 +11151,13 @@
         <v>965</v>
       </c>
       <c r="F317" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G317" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>966</v>
       </c>
@@ -11068,10 +11174,13 @@
         <v>968</v>
       </c>
       <c r="F318" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G318" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>969</v>
       </c>
@@ -11088,10 +11197,13 @@
         <v>971</v>
       </c>
       <c r="F319" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G319" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>972</v>
       </c>
@@ -11108,10 +11220,13 @@
         <v>974</v>
       </c>
       <c r="F320" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G320" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>975</v>
       </c>
@@ -11128,10 +11243,13 @@
         <v>977</v>
       </c>
       <c r="F321" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G321" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>978</v>
       </c>
@@ -11148,10 +11266,13 @@
         <v>980</v>
       </c>
       <c r="F322" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G322" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>981</v>
       </c>
@@ -11168,10 +11289,13 @@
         <v>983</v>
       </c>
       <c r="F323" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G323" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>984</v>
       </c>
@@ -11188,10 +11312,13 @@
         <v>986</v>
       </c>
       <c r="F324" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>987</v>
       </c>
@@ -11208,10 +11335,13 @@
         <v>989</v>
       </c>
       <c r="F325" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G325" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>990</v>
       </c>
@@ -11228,10 +11358,13 @@
         <v>992</v>
       </c>
       <c r="F326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G326" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>993</v>
       </c>
@@ -11248,10 +11381,13 @@
         <v>995</v>
       </c>
       <c r="F327" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>996</v>
       </c>
@@ -11268,10 +11404,13 @@
         <v>998</v>
       </c>
       <c r="F328" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>999</v>
       </c>
@@ -11288,10 +11427,13 @@
         <v>1001</v>
       </c>
       <c r="F329" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G329" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>1002</v>
       </c>
@@ -11308,10 +11450,13 @@
         <v>1004</v>
       </c>
       <c r="F330" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1005</v>
       </c>
@@ -11328,10 +11473,13 @@
         <v>1007</v>
       </c>
       <c r="F331" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+      <c r="G331" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>1008</v>
       </c>
@@ -11348,10 +11496,13 @@
         <v>1010</v>
       </c>
       <c r="F332" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G332" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1011</v>
       </c>
@@ -11368,10 +11519,13 @@
         <v>1013</v>
       </c>
       <c r="F333" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G333" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1014</v>
       </c>
@@ -11388,10 +11542,13 @@
         <v>1016</v>
       </c>
       <c r="F334" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G334" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>1017</v>
       </c>
@@ -11408,10 +11565,13 @@
         <v>1019</v>
       </c>
       <c r="F335" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1020</v>
       </c>
@@ -11428,10 +11588,13 @@
         <v>1022</v>
       </c>
       <c r="F336" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G336" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1023</v>
       </c>
@@ -11448,10 +11611,13 @@
         <v>1025</v>
       </c>
       <c r="F337" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+      <c r="G337" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>1026</v>
       </c>
@@ -11468,97 +11634,100 @@
         <v>1028</v>
       </c>
       <c r="F338" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G338" t="s">
         <v>1030</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1 A339:A1048576">
-    <cfRule type="duplicateValues" dxfId="60" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B338">
-    <cfRule type="duplicateValues" dxfId="59" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C338">
-    <cfRule type="duplicateValues" dxfId="58" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A338">
-    <cfRule type="duplicateValues" dxfId="57" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A338">
-    <cfRule type="duplicateValues" dxfId="56" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D262">
-    <cfRule type="duplicateValues" dxfId="55" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="duplicateValues" dxfId="54" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D263">
-    <cfRule type="duplicateValues" dxfId="53" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E263">
-    <cfRule type="duplicateValues" dxfId="52" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D268">
-    <cfRule type="duplicateValues" dxfId="51" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E268">
-    <cfRule type="duplicateValues" dxfId="50" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D151">
-    <cfRule type="duplicateValues" dxfId="49" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="duplicateValues" dxfId="48" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287">
-    <cfRule type="duplicateValues" dxfId="47" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E287">
-    <cfRule type="duplicateValues" dxfId="46" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D288">
-    <cfRule type="duplicateValues" dxfId="45" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E288">
-    <cfRule type="duplicateValues" dxfId="44" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="43" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D150">
-    <cfRule type="duplicateValues" dxfId="41" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E150">
-    <cfRule type="duplicateValues" dxfId="40" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D152:D261">
-    <cfRule type="duplicateValues" dxfId="39" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152:E261">
-    <cfRule type="duplicateValues" dxfId="38" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D264:D267">
-    <cfRule type="duplicateValues" dxfId="37" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E264:E267">
-    <cfRule type="duplicateValues" dxfId="36" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D269:D286">
-    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E269:E286">
-    <cfRule type="duplicateValues" dxfId="34" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D289:D338">
-    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E289:E338">
-    <cfRule type="duplicateValues" dxfId="32" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
